--- a/Raw data/Recorded Crime - Offenders, 2020-21 files/Copy of 2. Offenders, states and territories.xlsx
+++ b/Raw data/Recorded Crime - Offenders, 2020-21 files/Copy of 2. Offenders, states and territories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hk_la\Documents\Project-1\Raw data\Recorded Crime - Offenders, 2020-21 files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{679C589E-25B4-42A1-9BC6-6CEF8831A4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5F980B-6ACA-4003-B9B1-DB1917FEBD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="767" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Table 9" sheetId="11" r:id="rId5"/>
     <sheet name="Table 10" sheetId="12" r:id="rId6"/>
     <sheet name="Table 11" sheetId="13" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="20" r:id="rId8"/>
+    <sheet name="Offenders" sheetId="20" r:id="rId8"/>
     <sheet name="Table 12" sheetId="14" r:id="rId9"/>
     <sheet name="Table 13" sheetId="15" r:id="rId10"/>
     <sheet name="Table 14" sheetId="16" r:id="rId11"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="241">
   <si>
     <r>
       <t>Summary</t>
@@ -745,31 +745,13 @@
     <t>Female</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Homicide and related offences</t>
-  </si>
-  <si>
     <t>Acts intended to cause injury</t>
   </si>
   <si>
     <t>Sexual assault and related offences</t>
   </si>
   <si>
-    <t>Dangerous/negligent acts(d)</t>
-  </si>
-  <si>
-    <t>Abduction/harassment</t>
-  </si>
-  <si>
-    <t>Robbery/extortion</t>
-  </si>
-  <si>
     <t>Unlawful entry with intent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theft </t>
   </si>
   <si>
     <t>Fraud_deception</t>
@@ -787,20 +769,37 @@
     <t>Public order offences</t>
   </si>
   <si>
-    <t>Offences against justice(f)</t>
+    <t>Miscellaneous offences</t>
   </si>
   <si>
-    <t>Miscellaneous offences</t>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Abduction_harassment</t>
+  </si>
+  <si>
+    <t>Robbery_extortion</t>
+  </si>
+  <si>
+    <t>Dangerous_negligent acts</t>
+  </si>
+  <si>
+    <t>Offences against justice</t>
+  </si>
+  <si>
+    <t>Homicide and related offences</t>
+  </si>
+  <si>
+    <t>Theft</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1091,7 +1090,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1437,6 +1436,27 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1491,10 +1511,8 @@
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2862,12 +2880,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="29" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -3056,14 +3074,14 @@
       <c r="C28" s="92"/>
     </row>
     <row r="29" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="164" t="s">
+      <c r="B29" s="173" t="s">
         <v>220</v>
       </c>
-      <c r="C29" s="164"/>
+      <c r="C29" s="173"/>
     </row>
     <row r="30" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="164"/>
-      <c r="C30" s="164"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="173"/>
     </row>
     <row r="31" spans="1:3" s="29" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="91"/>
@@ -3297,36 +3315,36 @@
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="90"/>
-      <c r="B5" s="170" t="s">
+      <c r="B5" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="171"/>
-      <c r="O5" s="172" t="s">
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="172"/>
-      <c r="R5" s="172"/>
-      <c r="S5" s="172"/>
-      <c r="T5" s="172"/>
-      <c r="U5" s="172"/>
-      <c r="V5" s="172"/>
-      <c r="W5" s="172"/>
-      <c r="X5" s="172"/>
-      <c r="Y5" s="172"/>
-      <c r="Z5" s="172"/>
-      <c r="AA5" s="172"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="181"/>
+      <c r="R5" s="181"/>
+      <c r="S5" s="181"/>
+      <c r="T5" s="181"/>
+      <c r="U5" s="181"/>
+      <c r="V5" s="181"/>
+      <c r="W5" s="181"/>
+      <c r="X5" s="181"/>
+      <c r="Y5" s="181"/>
+      <c r="Z5" s="181"/>
+      <c r="AA5" s="181"/>
     </row>
     <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
@@ -3413,34 +3431,34 @@
     </row>
     <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="61"/>
-      <c r="B7" s="173" t="s">
+      <c r="B7" s="182" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="173"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="173"/>
-      <c r="S7" s="173"/>
-      <c r="T7" s="173"/>
-      <c r="U7" s="173"/>
-      <c r="V7" s="173"/>
-      <c r="W7" s="173"/>
-      <c r="X7" s="173"/>
-      <c r="Y7" s="173"/>
-      <c r="Z7" s="173"/>
-      <c r="AA7" s="173"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="182"/>
+      <c r="K7" s="182"/>
+      <c r="L7" s="182"/>
+      <c r="M7" s="182"/>
+      <c r="N7" s="182"/>
+      <c r="O7" s="182"/>
+      <c r="P7" s="182"/>
+      <c r="Q7" s="182"/>
+      <c r="R7" s="182"/>
+      <c r="S7" s="182"/>
+      <c r="T7" s="182"/>
+      <c r="U7" s="182"/>
+      <c r="V7" s="182"/>
+      <c r="W7" s="182"/>
+      <c r="X7" s="182"/>
+      <c r="Y7" s="182"/>
+      <c r="Z7" s="182"/>
+      <c r="AA7" s="182"/>
     </row>
     <row r="8" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
@@ -4772,34 +4790,34 @@
     </row>
     <row r="24" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="60"/>
-      <c r="B24" s="174" t="s">
+      <c r="B24" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="174"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="174"/>
-      <c r="K24" s="174"/>
-      <c r="L24" s="174"/>
-      <c r="M24" s="174"/>
-      <c r="N24" s="174"/>
-      <c r="O24" s="174"/>
-      <c r="P24" s="174"/>
-      <c r="Q24" s="174"/>
-      <c r="R24" s="174"/>
-      <c r="S24" s="174"/>
-      <c r="T24" s="174"/>
-      <c r="U24" s="174"/>
-      <c r="V24" s="174"/>
-      <c r="W24" s="174"/>
-      <c r="X24" s="174"/>
-      <c r="Y24" s="174"/>
-      <c r="Z24" s="174"/>
-      <c r="AA24" s="174"/>
+      <c r="C24" s="183"/>
+      <c r="D24" s="183"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="183"/>
+      <c r="L24" s="183"/>
+      <c r="M24" s="183"/>
+      <c r="N24" s="183"/>
+      <c r="O24" s="183"/>
+      <c r="P24" s="183"/>
+      <c r="Q24" s="183"/>
+      <c r="R24" s="183"/>
+      <c r="S24" s="183"/>
+      <c r="T24" s="183"/>
+      <c r="U24" s="183"/>
+      <c r="V24" s="183"/>
+      <c r="W24" s="183"/>
+      <c r="X24" s="183"/>
+      <c r="Y24" s="183"/>
+      <c r="Z24" s="183"/>
+      <c r="AA24" s="183"/>
     </row>
     <row r="25" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
@@ -6131,34 +6149,34 @@
     </row>
     <row r="41" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="60"/>
-      <c r="B41" s="174" t="s">
+      <c r="B41" s="183" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="174"/>
-      <c r="D41" s="174"/>
-      <c r="E41" s="174"/>
-      <c r="F41" s="174"/>
-      <c r="G41" s="174"/>
-      <c r="H41" s="174"/>
-      <c r="I41" s="174"/>
-      <c r="J41" s="174"/>
-      <c r="K41" s="174"/>
-      <c r="L41" s="174"/>
-      <c r="M41" s="174"/>
-      <c r="N41" s="174"/>
-      <c r="O41" s="174"/>
-      <c r="P41" s="174"/>
-      <c r="Q41" s="174"/>
-      <c r="R41" s="174"/>
-      <c r="S41" s="174"/>
-      <c r="T41" s="174"/>
-      <c r="U41" s="174"/>
-      <c r="V41" s="174"/>
-      <c r="W41" s="174"/>
-      <c r="X41" s="174"/>
-      <c r="Y41" s="174"/>
-      <c r="Z41" s="174"/>
-      <c r="AA41" s="174"/>
+      <c r="C41" s="183"/>
+      <c r="D41" s="183"/>
+      <c r="E41" s="183"/>
+      <c r="F41" s="183"/>
+      <c r="G41" s="183"/>
+      <c r="H41" s="183"/>
+      <c r="I41" s="183"/>
+      <c r="J41" s="183"/>
+      <c r="K41" s="183"/>
+      <c r="L41" s="183"/>
+      <c r="M41" s="183"/>
+      <c r="N41" s="183"/>
+      <c r="O41" s="183"/>
+      <c r="P41" s="183"/>
+      <c r="Q41" s="183"/>
+      <c r="R41" s="183"/>
+      <c r="S41" s="183"/>
+      <c r="T41" s="183"/>
+      <c r="U41" s="183"/>
+      <c r="V41" s="183"/>
+      <c r="W41" s="183"/>
+      <c r="X41" s="183"/>
+      <c r="Y41" s="183"/>
+      <c r="Z41" s="183"/>
+      <c r="AA41" s="183"/>
     </row>
     <row r="42" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="34" t="s">
@@ -7638,36 +7656,36 @@
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="90"/>
-      <c r="B5" s="170" t="s">
+      <c r="B5" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="171"/>
-      <c r="O5" s="172" t="s">
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="172"/>
-      <c r="R5" s="172"/>
-      <c r="S5" s="172"/>
-      <c r="T5" s="172"/>
-      <c r="U5" s="172"/>
-      <c r="V5" s="172"/>
-      <c r="W5" s="172"/>
-      <c r="X5" s="172"/>
-      <c r="Y5" s="172"/>
-      <c r="Z5" s="172"/>
-      <c r="AA5" s="172"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="181"/>
+      <c r="R5" s="181"/>
+      <c r="S5" s="181"/>
+      <c r="T5" s="181"/>
+      <c r="U5" s="181"/>
+      <c r="V5" s="181"/>
+      <c r="W5" s="181"/>
+      <c r="X5" s="181"/>
+      <c r="Y5" s="181"/>
+      <c r="Z5" s="181"/>
+      <c r="AA5" s="181"/>
     </row>
     <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
@@ -7754,34 +7772,34 @@
     </row>
     <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="61"/>
-      <c r="B7" s="173" t="s">
+      <c r="B7" s="182" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="173"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="173"/>
-      <c r="S7" s="173"/>
-      <c r="T7" s="173"/>
-      <c r="U7" s="173"/>
-      <c r="V7" s="173"/>
-      <c r="W7" s="173"/>
-      <c r="X7" s="173"/>
-      <c r="Y7" s="173"/>
-      <c r="Z7" s="173"/>
-      <c r="AA7" s="173"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="182"/>
+      <c r="K7" s="182"/>
+      <c r="L7" s="182"/>
+      <c r="M7" s="182"/>
+      <c r="N7" s="182"/>
+      <c r="O7" s="182"/>
+      <c r="P7" s="182"/>
+      <c r="Q7" s="182"/>
+      <c r="R7" s="182"/>
+      <c r="S7" s="182"/>
+      <c r="T7" s="182"/>
+      <c r="U7" s="182"/>
+      <c r="V7" s="182"/>
+      <c r="W7" s="182"/>
+      <c r="X7" s="182"/>
+      <c r="Y7" s="182"/>
+      <c r="Z7" s="182"/>
+      <c r="AA7" s="182"/>
     </row>
     <row r="8" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
@@ -9113,34 +9131,34 @@
     </row>
     <row r="24" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="60"/>
-      <c r="B24" s="174" t="s">
+      <c r="B24" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="174"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="174"/>
-      <c r="K24" s="174"/>
-      <c r="L24" s="174"/>
-      <c r="M24" s="174"/>
-      <c r="N24" s="174"/>
-      <c r="O24" s="174"/>
-      <c r="P24" s="174"/>
-      <c r="Q24" s="174"/>
-      <c r="R24" s="174"/>
-      <c r="S24" s="174"/>
-      <c r="T24" s="174"/>
-      <c r="U24" s="174"/>
-      <c r="V24" s="174"/>
-      <c r="W24" s="174"/>
-      <c r="X24" s="174"/>
-      <c r="Y24" s="174"/>
-      <c r="Z24" s="174"/>
-      <c r="AA24" s="174"/>
+      <c r="C24" s="183"/>
+      <c r="D24" s="183"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="183"/>
+      <c r="L24" s="183"/>
+      <c r="M24" s="183"/>
+      <c r="N24" s="183"/>
+      <c r="O24" s="183"/>
+      <c r="P24" s="183"/>
+      <c r="Q24" s="183"/>
+      <c r="R24" s="183"/>
+      <c r="S24" s="183"/>
+      <c r="T24" s="183"/>
+      <c r="U24" s="183"/>
+      <c r="V24" s="183"/>
+      <c r="W24" s="183"/>
+      <c r="X24" s="183"/>
+      <c r="Y24" s="183"/>
+      <c r="Z24" s="183"/>
+      <c r="AA24" s="183"/>
     </row>
     <row r="25" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
@@ -10472,34 +10490,34 @@
     </row>
     <row r="41" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="60"/>
-      <c r="B41" s="174" t="s">
+      <c r="B41" s="183" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="174"/>
-      <c r="D41" s="174"/>
-      <c r="E41" s="174"/>
-      <c r="F41" s="174"/>
-      <c r="G41" s="174"/>
-      <c r="H41" s="174"/>
-      <c r="I41" s="174"/>
-      <c r="J41" s="174"/>
-      <c r="K41" s="174"/>
-      <c r="L41" s="174"/>
-      <c r="M41" s="174"/>
-      <c r="N41" s="174"/>
-      <c r="O41" s="174"/>
-      <c r="P41" s="174"/>
-      <c r="Q41" s="174"/>
-      <c r="R41" s="174"/>
-      <c r="S41" s="174"/>
-      <c r="T41" s="174"/>
-      <c r="U41" s="174"/>
-      <c r="V41" s="174"/>
-      <c r="W41" s="174"/>
-      <c r="X41" s="174"/>
-      <c r="Y41" s="174"/>
-      <c r="Z41" s="174"/>
-      <c r="AA41" s="174"/>
+      <c r="C41" s="183"/>
+      <c r="D41" s="183"/>
+      <c r="E41" s="183"/>
+      <c r="F41" s="183"/>
+      <c r="G41" s="183"/>
+      <c r="H41" s="183"/>
+      <c r="I41" s="183"/>
+      <c r="J41" s="183"/>
+      <c r="K41" s="183"/>
+      <c r="L41" s="183"/>
+      <c r="M41" s="183"/>
+      <c r="N41" s="183"/>
+      <c r="O41" s="183"/>
+      <c r="P41" s="183"/>
+      <c r="Q41" s="183"/>
+      <c r="R41" s="183"/>
+      <c r="S41" s="183"/>
+      <c r="T41" s="183"/>
+      <c r="U41" s="183"/>
+      <c r="V41" s="183"/>
+      <c r="W41" s="183"/>
+      <c r="X41" s="183"/>
+      <c r="Y41" s="183"/>
+      <c r="Z41" s="183"/>
+      <c r="AA41" s="183"/>
     </row>
     <row r="42" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="34" t="s">
@@ -11965,26 +11983,26 @@
     </row>
     <row r="5" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41"/>
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="175" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="166" t="s">
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="176"/>
+      <c r="J5" s="175" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="166"/>
-      <c r="L5" s="166"/>
-      <c r="M5" s="166"/>
-      <c r="N5" s="166"/>
-      <c r="O5" s="166"/>
-      <c r="P5" s="166"/>
-      <c r="Q5" s="166"/>
+      <c r="K5" s="175"/>
+      <c r="L5" s="175"/>
+      <c r="M5" s="175"/>
+      <c r="N5" s="175"/>
+      <c r="O5" s="175"/>
+      <c r="P5" s="175"/>
+      <c r="Q5" s="175"/>
     </row>
     <row r="6" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="55" t="s">
@@ -12041,24 +12059,24 @@
     </row>
     <row r="7" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="55"/>
-      <c r="B7" s="168" t="s">
+      <c r="B7" s="177" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="168"/>
-      <c r="K7" s="168"/>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="168"/>
-      <c r="Q7" s="168"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
     </row>
     <row r="8" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="58" t="s">
@@ -14510,24 +14528,24 @@
     </row>
     <row r="56" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="66"/>
-      <c r="B56" s="169" t="s">
+      <c r="B56" s="178" t="s">
         <v>92</v>
       </c>
-      <c r="C56" s="169"/>
-      <c r="D56" s="169"/>
-      <c r="E56" s="169"/>
-      <c r="F56" s="169"/>
-      <c r="G56" s="169"/>
-      <c r="H56" s="169"/>
-      <c r="I56" s="169"/>
-      <c r="J56" s="169"/>
-      <c r="K56" s="169"/>
-      <c r="L56" s="169"/>
-      <c r="M56" s="169"/>
-      <c r="N56" s="169"/>
-      <c r="O56" s="169"/>
-      <c r="P56" s="169"/>
-      <c r="Q56" s="169"/>
+      <c r="C56" s="178"/>
+      <c r="D56" s="178"/>
+      <c r="E56" s="178"/>
+      <c r="F56" s="178"/>
+      <c r="G56" s="178"/>
+      <c r="H56" s="178"/>
+      <c r="I56" s="178"/>
+      <c r="J56" s="178"/>
+      <c r="K56" s="178"/>
+      <c r="L56" s="178"/>
+      <c r="M56" s="178"/>
+      <c r="N56" s="178"/>
+      <c r="O56" s="178"/>
+      <c r="P56" s="178"/>
+      <c r="Q56" s="178"/>
     </row>
     <row r="57" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="58" t="s">
@@ -17132,24 +17150,24 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
-      <c r="B5" s="170" t="s">
+      <c r="B5" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="175" t="s">
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="184" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="175"/>
-      <c r="K5" s="175"/>
-      <c r="L5" s="175"/>
-      <c r="M5" s="175"/>
-      <c r="N5" s="175"/>
-      <c r="O5" s="175"/>
+      <c r="J5" s="184"/>
+      <c r="K5" s="184"/>
+      <c r="L5" s="184"/>
+      <c r="M5" s="184"/>
+      <c r="N5" s="184"/>
+      <c r="O5" s="184"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
@@ -17200,22 +17218,22 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="113"/>
-      <c r="B7" s="176" t="s">
+      <c r="B7" s="185" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="186"/>
+      <c r="K7" s="186"/>
+      <c r="L7" s="186"/>
+      <c r="M7" s="186"/>
+      <c r="N7" s="186"/>
+      <c r="O7" s="186"/>
       <c r="P7" s="62"/>
       <c r="Q7" s="29"/>
       <c r="R7" s="29"/>
@@ -18380,22 +18398,22 @@
     </row>
     <row r="32" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="113"/>
-      <c r="B32" s="178" t="s">
+      <c r="B32" s="187" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="178"/>
-      <c r="D32" s="178"/>
-      <c r="E32" s="178"/>
-      <c r="F32" s="178"/>
-      <c r="G32" s="178"/>
-      <c r="H32" s="178"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="178"/>
-      <c r="K32" s="178"/>
-      <c r="L32" s="178"/>
-      <c r="M32" s="178"/>
-      <c r="N32" s="178"/>
-      <c r="O32" s="178"/>
+      <c r="C32" s="187"/>
+      <c r="D32" s="187"/>
+      <c r="E32" s="187"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="187"/>
+      <c r="H32" s="187"/>
+      <c r="I32" s="187"/>
+      <c r="J32" s="187"/>
+      <c r="K32" s="187"/>
+      <c r="L32" s="187"/>
+      <c r="M32" s="187"/>
+      <c r="N32" s="187"/>
+      <c r="O32" s="187"/>
       <c r="Q32" s="29"/>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
@@ -19688,23 +19706,23 @@
     </row>
     <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="175" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="181" t="s">
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="190" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="181"/>
+      <c r="J5" s="190"/>
+      <c r="K5" s="190"/>
+      <c r="L5" s="190"/>
+      <c r="M5" s="190"/>
+      <c r="N5" s="190"/>
     </row>
     <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
@@ -19752,21 +19770,21 @@
     </row>
     <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="113"/>
-      <c r="B7" s="174" t="s">
+      <c r="B7" s="183" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="180"/>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="189"/>
+      <c r="L7" s="189"/>
+      <c r="M7" s="189"/>
+      <c r="N7" s="189"/>
     </row>
     <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
@@ -20342,21 +20360,21 @@
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="113"/>
-      <c r="B21" s="179" t="s">
+      <c r="B21" s="188" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="180"/>
-      <c r="D21" s="180"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="180"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="180"/>
-      <c r="N21" s="180"/>
+      <c r="C21" s="189"/>
+      <c r="D21" s="189"/>
+      <c r="E21" s="189"/>
+      <c r="F21" s="189"/>
+      <c r="G21" s="189"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="189"/>
+      <c r="J21" s="189"/>
+      <c r="K21" s="189"/>
+      <c r="L21" s="189"/>
+      <c r="M21" s="189"/>
+      <c r="N21" s="189"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="43" t="s">
@@ -20932,21 +20950,21 @@
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="113"/>
-      <c r="B35" s="179" t="s">
+      <c r="B35" s="188" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="180"/>
-      <c r="D35" s="180"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="180"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="180"/>
-      <c r="I35" s="180"/>
-      <c r="J35" s="180"/>
-      <c r="K35" s="180"/>
-      <c r="L35" s="180"/>
-      <c r="M35" s="180"/>
-      <c r="N35" s="180"/>
+      <c r="C35" s="189"/>
+      <c r="D35" s="189"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="189"/>
+      <c r="G35" s="189"/>
+      <c r="H35" s="189"/>
+      <c r="I35" s="189"/>
+      <c r="J35" s="189"/>
+      <c r="K35" s="189"/>
+      <c r="L35" s="189"/>
+      <c r="M35" s="189"/>
+      <c r="N35" s="189"/>
     </row>
     <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="43" t="s">
@@ -21522,21 +21540,21 @@
     </row>
     <row r="49" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="113"/>
-      <c r="B49" s="179" t="s">
+      <c r="B49" s="188" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="180"/>
-      <c r="D49" s="180"/>
-      <c r="E49" s="180"/>
-      <c r="F49" s="180"/>
-      <c r="G49" s="180"/>
-      <c r="H49" s="180"/>
-      <c r="I49" s="180"/>
-      <c r="J49" s="180"/>
-      <c r="K49" s="180"/>
-      <c r="L49" s="180"/>
-      <c r="M49" s="180"/>
-      <c r="N49" s="180"/>
+      <c r="C49" s="189"/>
+      <c r="D49" s="189"/>
+      <c r="E49" s="189"/>
+      <c r="F49" s="189"/>
+      <c r="G49" s="189"/>
+      <c r="H49" s="189"/>
+      <c r="I49" s="189"/>
+      <c r="J49" s="189"/>
+      <c r="K49" s="189"/>
+      <c r="L49" s="189"/>
+      <c r="M49" s="189"/>
+      <c r="N49" s="189"/>
     </row>
     <row r="50" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="43" t="s">
@@ -22112,21 +22130,21 @@
     </row>
     <row r="63" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="113"/>
-      <c r="B63" s="179" t="s">
+      <c r="B63" s="188" t="s">
         <v>89</v>
       </c>
-      <c r="C63" s="180"/>
-      <c r="D63" s="180"/>
-      <c r="E63" s="180"/>
-      <c r="F63" s="180"/>
-      <c r="G63" s="180"/>
-      <c r="H63" s="180"/>
-      <c r="I63" s="180"/>
-      <c r="J63" s="180"/>
-      <c r="K63" s="180"/>
-      <c r="L63" s="180"/>
-      <c r="M63" s="180"/>
-      <c r="N63" s="180"/>
+      <c r="C63" s="189"/>
+      <c r="D63" s="189"/>
+      <c r="E63" s="189"/>
+      <c r="F63" s="189"/>
+      <c r="G63" s="189"/>
+      <c r="H63" s="189"/>
+      <c r="I63" s="189"/>
+      <c r="J63" s="189"/>
+      <c r="K63" s="189"/>
+      <c r="L63" s="189"/>
+      <c r="M63" s="189"/>
+      <c r="N63" s="189"/>
     </row>
     <row r="64" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="43" t="s">
@@ -22702,21 +22720,21 @@
     </row>
     <row r="77" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="113"/>
-      <c r="B77" s="179" t="s">
+      <c r="B77" s="188" t="s">
         <v>90</v>
       </c>
-      <c r="C77" s="180"/>
-      <c r="D77" s="180"/>
-      <c r="E77" s="180"/>
-      <c r="F77" s="180"/>
-      <c r="G77" s="180"/>
-      <c r="H77" s="180"/>
-      <c r="I77" s="180"/>
-      <c r="J77" s="180"/>
-      <c r="K77" s="180"/>
-      <c r="L77" s="180"/>
-      <c r="M77" s="180"/>
-      <c r="N77" s="180"/>
+      <c r="C77" s="189"/>
+      <c r="D77" s="189"/>
+      <c r="E77" s="189"/>
+      <c r="F77" s="189"/>
+      <c r="G77" s="189"/>
+      <c r="H77" s="189"/>
+      <c r="I77" s="189"/>
+      <c r="J77" s="189"/>
+      <c r="K77" s="189"/>
+      <c r="L77" s="189"/>
+      <c r="M77" s="189"/>
+      <c r="N77" s="189"/>
     </row>
     <row r="78" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="43" t="s">
@@ -23292,21 +23310,21 @@
     </row>
     <row r="91" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="113"/>
-      <c r="B91" s="179" t="s">
+      <c r="B91" s="188" t="s">
         <v>91</v>
       </c>
-      <c r="C91" s="180"/>
-      <c r="D91" s="180"/>
-      <c r="E91" s="180"/>
-      <c r="F91" s="180"/>
-      <c r="G91" s="180"/>
-      <c r="H91" s="180"/>
-      <c r="I91" s="180"/>
-      <c r="J91" s="180"/>
-      <c r="K91" s="180"/>
-      <c r="L91" s="180"/>
-      <c r="M91" s="180"/>
-      <c r="N91" s="180"/>
+      <c r="C91" s="189"/>
+      <c r="D91" s="189"/>
+      <c r="E91" s="189"/>
+      <c r="F91" s="189"/>
+      <c r="G91" s="189"/>
+      <c r="H91" s="189"/>
+      <c r="I91" s="189"/>
+      <c r="J91" s="189"/>
+      <c r="K91" s="189"/>
+      <c r="L91" s="189"/>
+      <c r="M91" s="189"/>
+      <c r="N91" s="189"/>
     </row>
     <row r="92" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="43" t="s">
@@ -23995,26 +24013,26 @@
     </row>
     <row r="5" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="94"/>
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="175" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="166" t="s">
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="176"/>
+      <c r="J5" s="175" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="166"/>
-      <c r="L5" s="166"/>
-      <c r="M5" s="166"/>
-      <c r="N5" s="166"/>
-      <c r="O5" s="166"/>
-      <c r="P5" s="166"/>
-      <c r="Q5" s="166"/>
+      <c r="K5" s="175"/>
+      <c r="L5" s="175"/>
+      <c r="M5" s="175"/>
+      <c r="N5" s="175"/>
+      <c r="O5" s="175"/>
+      <c r="P5" s="175"/>
+      <c r="Q5" s="175"/>
     </row>
     <row r="6" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
@@ -24071,24 +24089,24 @@
     </row>
     <row r="7" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="69"/>
-      <c r="B7" s="168" t="s">
+      <c r="B7" s="177" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="168"/>
-      <c r="K7" s="168"/>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="168"/>
-      <c r="Q7" s="168"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
     </row>
     <row r="8" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
@@ -26444,24 +26462,24 @@
     </row>
     <row r="62" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="64"/>
-      <c r="B62" s="169" t="s">
+      <c r="B62" s="178" t="s">
         <v>92</v>
       </c>
-      <c r="C62" s="169"/>
-      <c r="D62" s="169"/>
-      <c r="E62" s="169"/>
-      <c r="F62" s="169"/>
-      <c r="G62" s="169"/>
-      <c r="H62" s="169"/>
-      <c r="I62" s="169"/>
-      <c r="J62" s="169"/>
-      <c r="K62" s="169"/>
-      <c r="L62" s="169"/>
-      <c r="M62" s="169"/>
-      <c r="N62" s="169"/>
-      <c r="O62" s="169"/>
-      <c r="P62" s="169"/>
-      <c r="Q62" s="169"/>
+      <c r="C62" s="178"/>
+      <c r="D62" s="178"/>
+      <c r="E62" s="178"/>
+      <c r="F62" s="178"/>
+      <c r="G62" s="178"/>
+      <c r="H62" s="178"/>
+      <c r="I62" s="178"/>
+      <c r="J62" s="178"/>
+      <c r="K62" s="178"/>
+      <c r="L62" s="178"/>
+      <c r="M62" s="178"/>
+      <c r="N62" s="178"/>
+      <c r="O62" s="178"/>
+      <c r="P62" s="178"/>
+      <c r="Q62" s="178"/>
     </row>
     <row r="63" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="34" t="s">
@@ -29033,36 +29051,36 @@
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="90"/>
-      <c r="B5" s="170" t="s">
+      <c r="B5" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="171"/>
-      <c r="O5" s="172" t="s">
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="172"/>
-      <c r="R5" s="172"/>
-      <c r="S5" s="172"/>
-      <c r="T5" s="172"/>
-      <c r="U5" s="172"/>
-      <c r="V5" s="172"/>
-      <c r="W5" s="172"/>
-      <c r="X5" s="172"/>
-      <c r="Y5" s="172"/>
-      <c r="Z5" s="172"/>
-      <c r="AA5" s="172"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="181"/>
+      <c r="R5" s="181"/>
+      <c r="S5" s="181"/>
+      <c r="T5" s="181"/>
+      <c r="U5" s="181"/>
+      <c r="V5" s="181"/>
+      <c r="W5" s="181"/>
+      <c r="X5" s="181"/>
+      <c r="Y5" s="181"/>
+      <c r="Z5" s="181"/>
+      <c r="AA5" s="181"/>
     </row>
     <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
@@ -29149,34 +29167,34 @@
     </row>
     <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="61"/>
-      <c r="B7" s="173" t="s">
+      <c r="B7" s="182" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="173"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="173"/>
-      <c r="S7" s="173"/>
-      <c r="T7" s="173"/>
-      <c r="U7" s="173"/>
-      <c r="V7" s="173"/>
-      <c r="W7" s="173"/>
-      <c r="X7" s="173"/>
-      <c r="Y7" s="173"/>
-      <c r="Z7" s="173"/>
-      <c r="AA7" s="173"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="182"/>
+      <c r="K7" s="182"/>
+      <c r="L7" s="182"/>
+      <c r="M7" s="182"/>
+      <c r="N7" s="182"/>
+      <c r="O7" s="182"/>
+      <c r="P7" s="182"/>
+      <c r="Q7" s="182"/>
+      <c r="R7" s="182"/>
+      <c r="S7" s="182"/>
+      <c r="T7" s="182"/>
+      <c r="U7" s="182"/>
+      <c r="V7" s="182"/>
+      <c r="W7" s="182"/>
+      <c r="X7" s="182"/>
+      <c r="Y7" s="182"/>
+      <c r="Z7" s="182"/>
+      <c r="AA7" s="182"/>
     </row>
     <row r="8" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
@@ -30591,34 +30609,34 @@
     </row>
     <row r="25" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="60"/>
-      <c r="B25" s="174" t="s">
+      <c r="B25" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="174"/>
-      <c r="D25" s="174"/>
-      <c r="E25" s="174"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="174"/>
-      <c r="K25" s="174"/>
-      <c r="L25" s="174"/>
-      <c r="M25" s="174"/>
-      <c r="N25" s="174"/>
-      <c r="O25" s="174"/>
-      <c r="P25" s="174"/>
-      <c r="Q25" s="174"/>
-      <c r="R25" s="174"/>
-      <c r="S25" s="174"/>
-      <c r="T25" s="174"/>
-      <c r="U25" s="174"/>
-      <c r="V25" s="174"/>
-      <c r="W25" s="174"/>
-      <c r="X25" s="174"/>
-      <c r="Y25" s="174"/>
-      <c r="Z25" s="174"/>
-      <c r="AA25" s="174"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="183"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="183"/>
+      <c r="I25" s="183"/>
+      <c r="J25" s="183"/>
+      <c r="K25" s="183"/>
+      <c r="L25" s="183"/>
+      <c r="M25" s="183"/>
+      <c r="N25" s="183"/>
+      <c r="O25" s="183"/>
+      <c r="P25" s="183"/>
+      <c r="Q25" s="183"/>
+      <c r="R25" s="183"/>
+      <c r="S25" s="183"/>
+      <c r="T25" s="183"/>
+      <c r="U25" s="183"/>
+      <c r="V25" s="183"/>
+      <c r="W25" s="183"/>
+      <c r="X25" s="183"/>
+      <c r="Y25" s="183"/>
+      <c r="Z25" s="183"/>
+      <c r="AA25" s="183"/>
     </row>
     <row r="26" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
@@ -32033,34 +32051,34 @@
     </row>
     <row r="43" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="60"/>
-      <c r="B43" s="174" t="s">
+      <c r="B43" s="183" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="174"/>
-      <c r="D43" s="174"/>
-      <c r="E43" s="174"/>
-      <c r="F43" s="174"/>
-      <c r="G43" s="174"/>
-      <c r="H43" s="174"/>
-      <c r="I43" s="174"/>
-      <c r="J43" s="174"/>
-      <c r="K43" s="174"/>
-      <c r="L43" s="174"/>
-      <c r="M43" s="174"/>
-      <c r="N43" s="174"/>
-      <c r="O43" s="174"/>
-      <c r="P43" s="174"/>
-      <c r="Q43" s="174"/>
-      <c r="R43" s="174"/>
-      <c r="S43" s="174"/>
-      <c r="T43" s="174"/>
-      <c r="U43" s="174"/>
-      <c r="V43" s="174"/>
-      <c r="W43" s="174"/>
-      <c r="X43" s="174"/>
-      <c r="Y43" s="174"/>
-      <c r="Z43" s="174"/>
-      <c r="AA43" s="174"/>
+      <c r="C43" s="183"/>
+      <c r="D43" s="183"/>
+      <c r="E43" s="183"/>
+      <c r="F43" s="183"/>
+      <c r="G43" s="183"/>
+      <c r="H43" s="183"/>
+      <c r="I43" s="183"/>
+      <c r="J43" s="183"/>
+      <c r="K43" s="183"/>
+      <c r="L43" s="183"/>
+      <c r="M43" s="183"/>
+      <c r="N43" s="183"/>
+      <c r="O43" s="183"/>
+      <c r="P43" s="183"/>
+      <c r="Q43" s="183"/>
+      <c r="R43" s="183"/>
+      <c r="S43" s="183"/>
+      <c r="T43" s="183"/>
+      <c r="U43" s="183"/>
+      <c r="V43" s="183"/>
+      <c r="W43" s="183"/>
+      <c r="X43" s="183"/>
+      <c r="Y43" s="183"/>
+      <c r="Z43" s="183"/>
+      <c r="AA43" s="183"/>
     </row>
     <row r="44" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="34" t="s">
@@ -33567,14 +33585,14 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB73"/>
+  <dimension ref="A1:AB74"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:V1"/>
       <selection pane="topRight" sqref="A1:V1"/>
       <selection pane="bottomLeft" sqref="A1:V1"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25:N40"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43:N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -33638,36 +33656,36 @@
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="90"/>
-      <c r="B5" s="170" t="s">
+      <c r="B5" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="171"/>
-      <c r="O5" s="172" t="s">
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="172"/>
-      <c r="R5" s="172"/>
-      <c r="S5" s="172"/>
-      <c r="T5" s="172"/>
-      <c r="U5" s="172"/>
-      <c r="V5" s="172"/>
-      <c r="W5" s="172"/>
-      <c r="X5" s="172"/>
-      <c r="Y5" s="172"/>
-      <c r="Z5" s="172"/>
-      <c r="AA5" s="172"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="181"/>
+      <c r="R5" s="181"/>
+      <c r="S5" s="181"/>
+      <c r="T5" s="181"/>
+      <c r="U5" s="181"/>
+      <c r="V5" s="181"/>
+      <c r="W5" s="181"/>
+      <c r="X5" s="181"/>
+      <c r="Y5" s="181"/>
+      <c r="Z5" s="181"/>
+      <c r="AA5" s="181"/>
     </row>
     <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
@@ -35165,34 +35183,34 @@
     </row>
     <row r="24" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="60"/>
-      <c r="B24" s="174" t="s">
+      <c r="B24" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="174"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="174"/>
-      <c r="K24" s="174"/>
-      <c r="L24" s="174"/>
-      <c r="M24" s="174"/>
-      <c r="N24" s="174"/>
-      <c r="O24" s="174"/>
-      <c r="P24" s="174"/>
-      <c r="Q24" s="174"/>
-      <c r="R24" s="174"/>
-      <c r="S24" s="174"/>
-      <c r="T24" s="174"/>
-      <c r="U24" s="174"/>
-      <c r="V24" s="174"/>
-      <c r="W24" s="174"/>
-      <c r="X24" s="174"/>
-      <c r="Y24" s="174"/>
-      <c r="Z24" s="174"/>
-      <c r="AA24" s="174"/>
+      <c r="C24" s="183"/>
+      <c r="D24" s="183"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="183"/>
+      <c r="L24" s="183"/>
+      <c r="M24" s="183"/>
+      <c r="N24" s="183"/>
+      <c r="O24" s="183"/>
+      <c r="P24" s="183"/>
+      <c r="Q24" s="183"/>
+      <c r="R24" s="183"/>
+      <c r="S24" s="183"/>
+      <c r="T24" s="183"/>
+      <c r="U24" s="183"/>
+      <c r="V24" s="183"/>
+      <c r="W24" s="183"/>
+      <c r="X24" s="183"/>
+      <c r="Y24" s="183"/>
+      <c r="Z24" s="183"/>
+      <c r="AA24" s="183"/>
     </row>
     <row r="25" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
@@ -36607,1507 +36625,1564 @@
     </row>
     <row r="42" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="60"/>
-      <c r="B42" s="174" t="s">
+      <c r="B42" s="183" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="174"/>
-      <c r="D42" s="174"/>
-      <c r="E42" s="174"/>
-      <c r="F42" s="174"/>
-      <c r="G42" s="174"/>
-      <c r="H42" s="174"/>
-      <c r="I42" s="174"/>
-      <c r="J42" s="174"/>
-      <c r="K42" s="174"/>
-      <c r="L42" s="174"/>
-      <c r="M42" s="174"/>
-      <c r="N42" s="174"/>
-      <c r="O42" s="174"/>
-      <c r="P42" s="174"/>
-      <c r="Q42" s="174"/>
-      <c r="R42" s="174"/>
-      <c r="S42" s="174"/>
-      <c r="T42" s="174"/>
-      <c r="U42" s="174"/>
-      <c r="V42" s="174"/>
-      <c r="W42" s="174"/>
-      <c r="X42" s="174"/>
-      <c r="Y42" s="174"/>
-      <c r="Z42" s="174"/>
-      <c r="AA42" s="174"/>
-    </row>
-    <row r="43" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="117">
-        <v>160</v>
-      </c>
-      <c r="C43" s="117">
-        <v>146</v>
-      </c>
-      <c r="D43" s="117">
-        <v>102</v>
-      </c>
-      <c r="E43" s="117">
-        <v>118</v>
-      </c>
-      <c r="F43" s="117">
-        <v>128</v>
-      </c>
-      <c r="G43" s="117">
-        <v>120</v>
-      </c>
-      <c r="H43" s="117">
-        <v>132</v>
-      </c>
-      <c r="I43" s="117">
-        <v>169</v>
-      </c>
-      <c r="J43" s="117">
-        <v>117</v>
-      </c>
-      <c r="K43" s="117">
-        <v>157</v>
-      </c>
-      <c r="L43" s="117">
-        <v>138</v>
-      </c>
-      <c r="M43" s="117">
-        <v>146</v>
-      </c>
-      <c r="N43" s="118">
-        <v>162</v>
-      </c>
-      <c r="O43" s="70">
-        <v>3.4</v>
-      </c>
-      <c r="P43" s="56">
-        <v>3.1</v>
-      </c>
-      <c r="Q43" s="56">
-        <v>2.1</v>
-      </c>
-      <c r="R43" s="56">
-        <v>2.4</v>
-      </c>
-      <c r="S43" s="56">
-        <v>2.6</v>
-      </c>
-      <c r="T43" s="70">
-        <v>2.4</v>
-      </c>
-      <c r="U43" s="56">
-        <v>2.5</v>
-      </c>
-      <c r="V43" s="56">
-        <v>3.2</v>
-      </c>
-      <c r="W43" s="56">
-        <v>2.1</v>
-      </c>
-      <c r="X43" s="56">
-        <v>2.8</v>
-      </c>
-      <c r="Y43" s="86">
-        <v>2.4</v>
-      </c>
-      <c r="Z43" s="86">
-        <v>2.5</v>
-      </c>
-      <c r="AA43" s="86">
-        <v>2.8</v>
-      </c>
+      <c r="C42" s="183"/>
+      <c r="D42" s="183"/>
+      <c r="E42" s="183"/>
+      <c r="F42" s="183"/>
+      <c r="G42" s="183"/>
+      <c r="H42" s="183"/>
+      <c r="I42" s="183"/>
+      <c r="J42" s="183"/>
+      <c r="K42" s="183"/>
+      <c r="L42" s="183"/>
+      <c r="M42" s="183"/>
+      <c r="N42" s="183"/>
+      <c r="O42" s="183"/>
+      <c r="P42" s="183"/>
+      <c r="Q42" s="183"/>
+      <c r="R42" s="183"/>
+      <c r="S42" s="183"/>
+      <c r="T42" s="183"/>
+      <c r="U42" s="183"/>
+      <c r="V42" s="183"/>
+      <c r="W42" s="183"/>
+      <c r="X42" s="183"/>
+      <c r="Y42" s="183"/>
+      <c r="Z42" s="183"/>
+      <c r="AA42" s="183"/>
+    </row>
+    <row r="43" spans="1:27" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="K43" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="L43" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="M43" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="N43" s="122" t="s">
+        <v>218</v>
+      </c>
+      <c r="O43" s="164"/>
+      <c r="P43" s="164"/>
+      <c r="Q43" s="164"/>
+      <c r="R43" s="164"/>
+      <c r="S43" s="164"/>
+      <c r="T43" s="164"/>
+      <c r="U43" s="164"/>
+      <c r="V43" s="164"/>
+      <c r="W43" s="164"/>
+      <c r="X43" s="164"/>
+      <c r="Y43" s="164"/>
+      <c r="Z43" s="164"/>
+      <c r="AA43" s="164"/>
     </row>
     <row r="44" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="34" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="B44" s="117">
-        <v>12107</v>
+        <v>160</v>
       </c>
       <c r="C44" s="117">
-        <v>12406</v>
+        <v>146</v>
       </c>
       <c r="D44" s="117">
-        <v>12311</v>
+        <v>102</v>
       </c>
       <c r="E44" s="117">
-        <v>13107</v>
+        <v>118</v>
       </c>
       <c r="F44" s="117">
-        <v>15319</v>
+        <v>128</v>
       </c>
       <c r="G44" s="117">
-        <v>16238</v>
+        <v>120</v>
       </c>
       <c r="H44" s="117">
-        <v>16440</v>
+        <v>132</v>
       </c>
       <c r="I44" s="117">
-        <v>17063</v>
+        <v>169</v>
       </c>
       <c r="J44" s="117">
-        <v>17725</v>
+        <v>117</v>
       </c>
       <c r="K44" s="117">
-        <v>17406</v>
+        <v>157</v>
       </c>
       <c r="L44" s="117">
-        <v>17423</v>
+        <v>138</v>
       </c>
       <c r="M44" s="117">
-        <v>17171</v>
+        <v>146</v>
       </c>
       <c r="N44" s="118">
-        <v>17351</v>
+        <v>162</v>
       </c>
       <c r="O44" s="70">
-        <v>260.10000000000002</v>
+        <v>3.4</v>
       </c>
       <c r="P44" s="56">
-        <v>261.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q44" s="56">
-        <v>255.6</v>
+        <v>2.1</v>
       </c>
       <c r="R44" s="56">
-        <v>267.60000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="S44" s="56">
-        <v>306.7</v>
+        <v>2.6</v>
       </c>
       <c r="T44" s="70">
-        <v>318.60000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="U44" s="56">
-        <v>316</v>
+        <v>2.5</v>
       </c>
       <c r="V44" s="56">
-        <v>320.89999999999998</v>
+        <v>3.2</v>
       </c>
       <c r="W44" s="56">
-        <v>325.2</v>
+        <v>2.1</v>
       </c>
       <c r="X44" s="56">
-        <v>312</v>
+        <v>2.8</v>
       </c>
       <c r="Y44" s="86">
-        <v>305</v>
+        <v>2.4</v>
       </c>
       <c r="Z44" s="86">
-        <v>294.3</v>
+        <v>2.5</v>
       </c>
       <c r="AA44" s="86">
-        <v>296.60000000000002</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="45" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="34" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="B45" s="117">
-        <v>1290</v>
+        <v>12107</v>
       </c>
       <c r="C45" s="117">
-        <v>1330</v>
+        <v>12406</v>
       </c>
       <c r="D45" s="117">
-        <v>1193</v>
+        <v>12311</v>
       </c>
       <c r="E45" s="117">
-        <v>1387</v>
+        <v>13107</v>
       </c>
       <c r="F45" s="117">
-        <v>1395</v>
+        <v>15319</v>
       </c>
       <c r="G45" s="117">
-        <v>1566</v>
+        <v>16238</v>
       </c>
       <c r="H45" s="117">
-        <v>1573</v>
+        <v>16440</v>
       </c>
       <c r="I45" s="117">
-        <v>1600</v>
+        <v>17063</v>
       </c>
       <c r="J45" s="117">
-        <v>1779</v>
+        <v>17725</v>
       </c>
       <c r="K45" s="117">
-        <v>1683</v>
+        <v>17406</v>
       </c>
       <c r="L45" s="117">
-        <v>1737</v>
+        <v>17423</v>
       </c>
       <c r="M45" s="117">
-        <v>1695</v>
+        <v>17171</v>
       </c>
       <c r="N45" s="118">
-        <v>1612</v>
+        <v>17351</v>
       </c>
       <c r="O45" s="70">
-        <v>27.7</v>
+        <v>260.10000000000002</v>
       </c>
       <c r="P45" s="56">
-        <v>28</v>
+        <v>261.2</v>
       </c>
       <c r="Q45" s="56">
-        <v>24.8</v>
+        <v>255.6</v>
       </c>
       <c r="R45" s="56">
-        <v>28.3</v>
+        <v>267.60000000000002</v>
       </c>
       <c r="S45" s="56">
-        <v>27.9</v>
+        <v>306.7</v>
       </c>
       <c r="T45" s="70">
-        <v>30.7</v>
+        <v>318.60000000000002</v>
       </c>
       <c r="U45" s="56">
-        <v>30.2</v>
+        <v>316</v>
       </c>
       <c r="V45" s="56">
-        <v>30.1</v>
+        <v>320.89999999999998</v>
       </c>
       <c r="W45" s="56">
-        <v>32.6</v>
+        <v>325.2</v>
       </c>
       <c r="X45" s="56">
-        <v>30.2</v>
+        <v>312</v>
       </c>
       <c r="Y45" s="86">
-        <v>30.4</v>
+        <v>305</v>
       </c>
       <c r="Z45" s="86">
-        <v>29.1</v>
+        <v>294.3</v>
       </c>
       <c r="AA45" s="86">
-        <v>27.6</v>
+        <v>296.60000000000002</v>
       </c>
     </row>
     <row r="46" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="34" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="B46" s="117">
-        <v>667</v>
+        <v>1290</v>
       </c>
       <c r="C46" s="117">
-        <v>732</v>
+        <v>1330</v>
       </c>
       <c r="D46" s="117">
-        <v>763</v>
+        <v>1193</v>
       </c>
       <c r="E46" s="117">
-        <v>821</v>
+        <v>1387</v>
       </c>
       <c r="F46" s="117">
-        <v>813</v>
+        <v>1395</v>
       </c>
       <c r="G46" s="117">
-        <v>855</v>
+        <v>1566</v>
       </c>
       <c r="H46" s="117">
-        <v>886</v>
+        <v>1573</v>
       </c>
       <c r="I46" s="117">
-        <v>866</v>
+        <v>1600</v>
       </c>
       <c r="J46" s="117">
-        <v>1053</v>
+        <v>1779</v>
       </c>
       <c r="K46" s="117">
-        <v>961</v>
+        <v>1683</v>
       </c>
       <c r="L46" s="117">
-        <v>950</v>
+        <v>1737</v>
       </c>
       <c r="M46" s="117">
-        <v>913</v>
+        <v>1695</v>
       </c>
       <c r="N46" s="118">
-        <v>894</v>
+        <v>1612</v>
       </c>
       <c r="O46" s="70">
-        <v>14.3</v>
+        <v>27.7</v>
       </c>
       <c r="P46" s="56">
-        <v>15.4</v>
+        <v>28</v>
       </c>
       <c r="Q46" s="56">
-        <v>15.8</v>
+        <v>24.8</v>
       </c>
       <c r="R46" s="56">
-        <v>16.8</v>
+        <v>28.3</v>
       </c>
       <c r="S46" s="56">
-        <v>16.3</v>
+        <v>27.9</v>
       </c>
       <c r="T46" s="70">
-        <v>16.8</v>
+        <v>30.7</v>
       </c>
       <c r="U46" s="56">
-        <v>17</v>
+        <v>30.2</v>
       </c>
       <c r="V46" s="56">
-        <v>16.3</v>
+        <v>30.1</v>
       </c>
       <c r="W46" s="56">
-        <v>19.3</v>
+        <v>32.6</v>
       </c>
       <c r="X46" s="56">
-        <v>17.2</v>
+        <v>30.2</v>
       </c>
       <c r="Y46" s="86">
-        <v>16.600000000000001</v>
+        <v>30.4</v>
       </c>
       <c r="Z46" s="86">
-        <v>15.6</v>
+        <v>29.1</v>
       </c>
       <c r="AA46" s="86">
-        <v>15.3</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="47" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="34" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="B47" s="117">
-        <v>632</v>
+        <v>667</v>
       </c>
       <c r="C47" s="117">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="D47" s="117">
-        <v>726</v>
+        <v>763</v>
       </c>
       <c r="E47" s="117">
-        <v>872</v>
+        <v>821</v>
       </c>
       <c r="F47" s="117">
-        <v>1056</v>
+        <v>813</v>
       </c>
       <c r="G47" s="117">
-        <v>1213</v>
+        <v>855</v>
       </c>
       <c r="H47" s="117">
-        <v>1421</v>
+        <v>886</v>
       </c>
       <c r="I47" s="117">
-        <v>1485</v>
+        <v>866</v>
       </c>
       <c r="J47" s="117">
-        <v>1615</v>
+        <v>1053</v>
       </c>
       <c r="K47" s="117">
-        <v>1574</v>
+        <v>961</v>
       </c>
       <c r="L47" s="117">
-        <v>1717</v>
+        <v>950</v>
       </c>
       <c r="M47" s="117">
-        <v>1766</v>
+        <v>913</v>
       </c>
       <c r="N47" s="118">
-        <v>1929</v>
+        <v>894</v>
       </c>
       <c r="O47" s="70">
-        <v>13.6</v>
+        <v>14.3</v>
       </c>
       <c r="P47" s="56">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="Q47" s="56">
-        <v>15.1</v>
+        <v>15.8</v>
       </c>
       <c r="R47" s="56">
-        <v>17.8</v>
+        <v>16.8</v>
       </c>
       <c r="S47" s="56">
-        <v>21.1</v>
+        <v>16.3</v>
       </c>
       <c r="T47" s="70">
-        <v>23.8</v>
+        <v>16.8</v>
       </c>
       <c r="U47" s="56">
-        <v>27.3</v>
+        <v>17</v>
       </c>
       <c r="V47" s="56">
-        <v>27.9</v>
+        <v>16.3</v>
       </c>
       <c r="W47" s="56">
-        <v>29.6</v>
+        <v>19.3</v>
       </c>
       <c r="X47" s="56">
-        <v>28.2</v>
+        <v>17.2</v>
       </c>
       <c r="Y47" s="86">
-        <v>30.1</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="Z47" s="86">
-        <v>30.3</v>
+        <v>15.6</v>
       </c>
       <c r="AA47" s="86">
-        <v>33</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="48" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B48" s="117">
-        <v>468</v>
+        <v>632</v>
       </c>
       <c r="C48" s="117">
-        <v>481</v>
+        <v>755</v>
       </c>
       <c r="D48" s="117">
-        <v>522</v>
+        <v>726</v>
       </c>
       <c r="E48" s="117">
-        <v>547</v>
+        <v>872</v>
       </c>
       <c r="F48" s="117">
-        <v>547</v>
+        <v>1056</v>
       </c>
       <c r="G48" s="117">
-        <v>520</v>
+        <v>1213</v>
       </c>
       <c r="H48" s="117">
-        <v>436</v>
+        <v>1421</v>
       </c>
       <c r="I48" s="117">
-        <v>471</v>
+        <v>1485</v>
       </c>
       <c r="J48" s="117">
-        <v>522</v>
+        <v>1615</v>
       </c>
       <c r="K48" s="117">
-        <v>615</v>
+        <v>1574</v>
       </c>
       <c r="L48" s="117">
-        <v>672</v>
+        <v>1717</v>
       </c>
       <c r="M48" s="117">
-        <v>805</v>
+        <v>1766</v>
       </c>
       <c r="N48" s="118">
-        <v>490</v>
+        <v>1929</v>
       </c>
       <c r="O48" s="70">
-        <v>10.1</v>
+        <v>13.6</v>
       </c>
       <c r="P48" s="56">
-        <v>10.1</v>
+        <v>15.9</v>
       </c>
       <c r="Q48" s="56">
-        <v>10.8</v>
+        <v>15.1</v>
       </c>
       <c r="R48" s="56">
-        <v>11.2</v>
+        <v>17.8</v>
       </c>
       <c r="S48" s="56">
-        <v>11</v>
+        <v>21.1</v>
       </c>
       <c r="T48" s="70">
-        <v>10.199999999999999</v>
+        <v>23.8</v>
       </c>
       <c r="U48" s="56">
-        <v>8.4</v>
+        <v>27.3</v>
       </c>
       <c r="V48" s="56">
-        <v>8.9</v>
+        <v>27.9</v>
       </c>
       <c r="W48" s="56">
-        <v>9.6</v>
+        <v>29.6</v>
       </c>
       <c r="X48" s="56">
-        <v>11</v>
+        <v>28.2</v>
       </c>
       <c r="Y48" s="86">
-        <v>11.8</v>
+        <v>30.1</v>
       </c>
       <c r="Z48" s="86">
-        <v>13.8</v>
+        <v>30.3</v>
       </c>
       <c r="AA48" s="86">
-        <v>8.4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49" s="117">
-        <v>3147</v>
+        <v>468</v>
       </c>
       <c r="C49" s="117">
-        <v>2970</v>
+        <v>481</v>
       </c>
       <c r="D49" s="117">
-        <v>2841</v>
+        <v>522</v>
       </c>
       <c r="E49" s="117">
-        <v>2620</v>
+        <v>547</v>
       </c>
       <c r="F49" s="117">
-        <v>2385</v>
+        <v>547</v>
       </c>
       <c r="G49" s="117">
-        <v>2275</v>
+        <v>520</v>
       </c>
       <c r="H49" s="117">
-        <v>2051</v>
+        <v>436</v>
       </c>
       <c r="I49" s="117">
-        <v>2122</v>
+        <v>471</v>
       </c>
       <c r="J49" s="117">
-        <v>2154</v>
+        <v>522</v>
       </c>
       <c r="K49" s="117">
-        <v>2108</v>
+        <v>615</v>
       </c>
       <c r="L49" s="117">
-        <v>1974</v>
+        <v>672</v>
       </c>
       <c r="M49" s="117">
-        <v>1879</v>
+        <v>805</v>
       </c>
       <c r="N49" s="118">
-        <v>1600</v>
+        <v>490</v>
       </c>
       <c r="O49" s="70">
-        <v>67.599999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="P49" s="56">
-        <v>62.5</v>
+        <v>10.1</v>
       </c>
       <c r="Q49" s="56">
-        <v>59</v>
+        <v>10.8</v>
       </c>
       <c r="R49" s="56">
-        <v>53.5</v>
+        <v>11.2</v>
       </c>
       <c r="S49" s="56">
-        <v>47.8</v>
+        <v>11</v>
       </c>
       <c r="T49" s="70">
-        <v>44.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="U49" s="56">
-        <v>39.4</v>
+        <v>8.4</v>
       </c>
       <c r="V49" s="56">
-        <v>39.9</v>
+        <v>8.9</v>
       </c>
       <c r="W49" s="56">
-        <v>39.5</v>
+        <v>9.6</v>
       </c>
       <c r="X49" s="56">
-        <v>37.799999999999997</v>
+        <v>11</v>
       </c>
       <c r="Y49" s="86">
-        <v>34.6</v>
+        <v>11.8</v>
       </c>
       <c r="Z49" s="86">
-        <v>32.200000000000003</v>
+        <v>13.8</v>
       </c>
       <c r="AA49" s="86">
-        <v>27.3</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="50" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="B50" s="117">
-        <v>15494</v>
+        <v>3147</v>
       </c>
       <c r="C50" s="117">
-        <v>16430</v>
+        <v>2970</v>
       </c>
       <c r="D50" s="117">
-        <v>16467</v>
+        <v>2841</v>
       </c>
       <c r="E50" s="117">
-        <v>17457</v>
+        <v>2620</v>
       </c>
       <c r="F50" s="117">
-        <v>15667</v>
+        <v>2385</v>
       </c>
       <c r="G50" s="117">
-        <v>13135</v>
+        <v>2275</v>
       </c>
       <c r="H50" s="117">
-        <v>8382</v>
+        <v>2051</v>
       </c>
       <c r="I50" s="117">
-        <v>8222</v>
+        <v>2122</v>
       </c>
       <c r="J50" s="117">
-        <v>8386</v>
+        <v>2154</v>
       </c>
       <c r="K50" s="117">
-        <v>8012</v>
+        <v>2108</v>
       </c>
       <c r="L50" s="117">
-        <v>8626</v>
+        <v>1974</v>
       </c>
       <c r="M50" s="117">
-        <v>8331</v>
+        <v>1879</v>
       </c>
       <c r="N50" s="118">
-        <v>6068</v>
+        <v>1600</v>
       </c>
       <c r="O50" s="70">
-        <v>332.8</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="P50" s="56">
-        <v>345.9</v>
+        <v>62.5</v>
       </c>
       <c r="Q50" s="56">
-        <v>341.9</v>
+        <v>59</v>
       </c>
       <c r="R50" s="56">
-        <v>356.5</v>
+        <v>53.5</v>
       </c>
       <c r="S50" s="56">
-        <v>313.7</v>
+        <v>47.8</v>
       </c>
       <c r="T50" s="70">
-        <v>257.7</v>
+        <v>44.6</v>
       </c>
       <c r="U50" s="56">
-        <v>161.1</v>
+        <v>39.4</v>
       </c>
       <c r="V50" s="56">
-        <v>154.6</v>
+        <v>39.9</v>
       </c>
       <c r="W50" s="56">
-        <v>153.80000000000001</v>
+        <v>39.5</v>
       </c>
       <c r="X50" s="56">
-        <v>143.6</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="Y50" s="86">
-        <v>151</v>
+        <v>34.6</v>
       </c>
       <c r="Z50" s="86">
-        <v>142.80000000000001</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="AA50" s="86">
-        <v>103.7</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="51" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="C51" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="D51" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="E51" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="F51" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="G51" s="117" t="s">
-        <v>179</v>
+        <v>117</v>
+      </c>
+      <c r="B51" s="117">
+        <v>15494</v>
+      </c>
+      <c r="C51" s="117">
+        <v>16430</v>
+      </c>
+      <c r="D51" s="117">
+        <v>16467</v>
+      </c>
+      <c r="E51" s="117">
+        <v>17457</v>
+      </c>
+      <c r="F51" s="117">
+        <v>15667</v>
+      </c>
+      <c r="G51" s="117">
+        <v>13135</v>
       </c>
       <c r="H51" s="117">
-        <v>2701</v>
+        <v>8382</v>
       </c>
       <c r="I51" s="117">
-        <v>2493</v>
+        <v>8222</v>
       </c>
       <c r="J51" s="117">
-        <v>2020</v>
+        <v>8386</v>
       </c>
       <c r="K51" s="117">
-        <v>2008</v>
+        <v>8012</v>
       </c>
       <c r="L51" s="117">
-        <v>1783</v>
+        <v>8626</v>
       </c>
       <c r="M51" s="117">
-        <v>1277</v>
+        <v>8331</v>
       </c>
       <c r="N51" s="118">
-        <v>623</v>
-      </c>
-      <c r="O51" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="P51" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q51" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="R51" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="S51" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="T51" s="56" t="s">
-        <v>179</v>
+        <v>6068</v>
+      </c>
+      <c r="O51" s="70">
+        <v>332.8</v>
+      </c>
+      <c r="P51" s="56">
+        <v>345.9</v>
+      </c>
+      <c r="Q51" s="56">
+        <v>341.9</v>
+      </c>
+      <c r="R51" s="56">
+        <v>356.5</v>
+      </c>
+      <c r="S51" s="56">
+        <v>313.7</v>
+      </c>
+      <c r="T51" s="70">
+        <v>257.7</v>
       </c>
       <c r="U51" s="56">
-        <v>51.9</v>
+        <v>161.1</v>
       </c>
       <c r="V51" s="56">
-        <v>46.9</v>
+        <v>154.6</v>
       </c>
       <c r="W51" s="56">
-        <v>37.1</v>
+        <v>153.80000000000001</v>
       </c>
       <c r="X51" s="56">
-        <v>36</v>
+        <v>143.6</v>
       </c>
       <c r="Y51" s="86">
-        <v>31.2</v>
+        <v>151</v>
       </c>
       <c r="Z51" s="86">
-        <v>21.9</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="AA51" s="86">
-        <v>10.6</v>
+        <v>103.7</v>
       </c>
     </row>
     <row r="52" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" s="117">
-        <v>2251</v>
-      </c>
-      <c r="C52" s="117">
-        <v>2188</v>
-      </c>
-      <c r="D52" s="117">
-        <v>1907</v>
-      </c>
-      <c r="E52" s="117">
-        <v>2029</v>
-      </c>
-      <c r="F52" s="117">
-        <v>2465</v>
-      </c>
-      <c r="G52" s="117">
-        <v>2382</v>
+        <v>37</v>
+      </c>
+      <c r="B52" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="D52" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="E52" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="F52" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="G52" s="117" t="s">
+        <v>179</v>
       </c>
       <c r="H52" s="117">
-        <v>2239</v>
+        <v>2701</v>
       </c>
       <c r="I52" s="117">
-        <v>2309</v>
+        <v>2493</v>
       </c>
       <c r="J52" s="117">
-        <v>2400</v>
+        <v>2020</v>
       </c>
       <c r="K52" s="117">
-        <v>2413</v>
+        <v>2008</v>
       </c>
       <c r="L52" s="117">
-        <v>2540</v>
+        <v>1783</v>
       </c>
       <c r="M52" s="117">
-        <v>2552</v>
+        <v>1277</v>
       </c>
       <c r="N52" s="118">
-        <v>2206</v>
-      </c>
-      <c r="O52" s="70">
-        <v>48.4</v>
-      </c>
-      <c r="P52" s="56">
-        <v>46.1</v>
-      </c>
-      <c r="Q52" s="56">
-        <v>39.6</v>
-      </c>
-      <c r="R52" s="56">
-        <v>41.4</v>
-      </c>
-      <c r="S52" s="56">
-        <v>49.4</v>
-      </c>
-      <c r="T52" s="70">
-        <v>46.7</v>
+        <v>623</v>
+      </c>
+      <c r="O52" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="P52" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q52" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="R52" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="S52" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="T52" s="56" t="s">
+        <v>179</v>
       </c>
       <c r="U52" s="56">
-        <v>43</v>
+        <v>51.9</v>
       </c>
       <c r="V52" s="56">
-        <v>43.4</v>
+        <v>46.9</v>
       </c>
       <c r="W52" s="56">
-        <v>44</v>
+        <v>37.1</v>
       </c>
       <c r="X52" s="56">
-        <v>43.3</v>
+        <v>36</v>
       </c>
       <c r="Y52" s="86">
-        <v>44.5</v>
+        <v>31.2</v>
       </c>
       <c r="Z52" s="86">
-        <v>43.7</v>
+        <v>21.9</v>
       </c>
       <c r="AA52" s="86">
-        <v>37.700000000000003</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="53" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B53" s="117">
-        <v>6639</v>
+        <v>2251</v>
       </c>
       <c r="C53" s="117">
-        <v>6734</v>
+        <v>2188</v>
       </c>
       <c r="D53" s="117">
-        <v>6583</v>
+        <v>1907</v>
       </c>
       <c r="E53" s="117">
-        <v>7604</v>
+        <v>2029</v>
       </c>
       <c r="F53" s="117">
-        <v>8344</v>
+        <v>2465</v>
       </c>
       <c r="G53" s="117">
-        <v>8676</v>
+        <v>2382</v>
       </c>
       <c r="H53" s="117">
-        <v>9706</v>
+        <v>2239</v>
       </c>
       <c r="I53" s="117">
-        <v>8676</v>
+        <v>2309</v>
       </c>
       <c r="J53" s="117">
-        <v>8809</v>
+        <v>2400</v>
       </c>
       <c r="K53" s="117">
-        <v>8577</v>
+        <v>2413</v>
       </c>
       <c r="L53" s="117">
-        <v>9385</v>
+        <v>2540</v>
       </c>
       <c r="M53" s="117">
-        <v>9898</v>
+        <v>2552</v>
       </c>
       <c r="N53" s="118">
-        <v>8595</v>
+        <v>2206</v>
       </c>
       <c r="O53" s="70">
-        <v>142.6</v>
+        <v>48.4</v>
       </c>
       <c r="P53" s="56">
-        <v>141.80000000000001</v>
+        <v>46.1</v>
       </c>
       <c r="Q53" s="56">
-        <v>136.69999999999999</v>
+        <v>39.6</v>
       </c>
       <c r="R53" s="56">
-        <v>155.30000000000001</v>
+        <v>41.4</v>
       </c>
       <c r="S53" s="56">
-        <v>167.1</v>
+        <v>49.4</v>
       </c>
       <c r="T53" s="70">
-        <v>170.2</v>
+        <v>46.7</v>
       </c>
       <c r="U53" s="56">
-        <v>186.6</v>
+        <v>43</v>
       </c>
       <c r="V53" s="56">
-        <v>163.19999999999999</v>
+        <v>43.4</v>
       </c>
       <c r="W53" s="56">
-        <v>161.6</v>
+        <v>44</v>
       </c>
       <c r="X53" s="56">
-        <v>153.80000000000001</v>
+        <v>43.3</v>
       </c>
       <c r="Y53" s="86">
-        <v>164.3</v>
+        <v>44.5</v>
       </c>
       <c r="Z53" s="86">
-        <v>169.6</v>
+        <v>43.7</v>
       </c>
       <c r="AA53" s="86">
-        <v>146.9</v>
+        <v>37.700000000000003</v>
       </c>
     </row>
     <row r="54" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="34" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="B54" s="117">
-        <v>2616</v>
+        <v>6639</v>
       </c>
       <c r="C54" s="117">
-        <v>2482</v>
+        <v>6734</v>
       </c>
       <c r="D54" s="117">
-        <v>2491</v>
+        <v>6583</v>
       </c>
       <c r="E54" s="117">
-        <v>2873</v>
+        <v>7604</v>
       </c>
       <c r="F54" s="117">
-        <v>3474</v>
+        <v>8344</v>
       </c>
       <c r="G54" s="117">
-        <v>3748</v>
+        <v>8676</v>
       </c>
       <c r="H54" s="117">
-        <v>4307</v>
+        <v>9706</v>
       </c>
       <c r="I54" s="117">
-        <v>4287</v>
+        <v>8676</v>
       </c>
       <c r="J54" s="117">
-        <v>4244</v>
+        <v>8809</v>
       </c>
       <c r="K54" s="117">
-        <v>5618</v>
+        <v>8577</v>
       </c>
       <c r="L54" s="117">
-        <v>5758</v>
+        <v>9385</v>
       </c>
       <c r="M54" s="117">
-        <v>5696</v>
+        <v>9898</v>
       </c>
       <c r="N54" s="118">
-        <v>5320</v>
+        <v>8595</v>
       </c>
       <c r="O54" s="70">
-        <v>56.2</v>
+        <v>142.6</v>
       </c>
       <c r="P54" s="56">
-        <v>52.3</v>
+        <v>141.80000000000001</v>
       </c>
       <c r="Q54" s="56">
-        <v>51.7</v>
+        <v>136.69999999999999</v>
       </c>
       <c r="R54" s="56">
-        <v>58.7</v>
+        <v>155.30000000000001</v>
       </c>
       <c r="S54" s="56">
-        <v>69.599999999999994</v>
+        <v>167.1</v>
       </c>
       <c r="T54" s="70">
-        <v>73.5</v>
+        <v>170.2</v>
       </c>
       <c r="U54" s="56">
-        <v>82.8</v>
+        <v>186.6</v>
       </c>
       <c r="V54" s="56">
-        <v>80.599999999999994</v>
+        <v>163.19999999999999</v>
       </c>
       <c r="W54" s="56">
-        <v>77.900000000000006</v>
+        <v>161.6</v>
       </c>
       <c r="X54" s="56">
-        <v>100.7</v>
+        <v>153.80000000000001</v>
       </c>
       <c r="Y54" s="86">
-        <v>100.8</v>
+        <v>164.3</v>
       </c>
       <c r="Z54" s="86">
-        <v>97.6</v>
+        <v>169.6</v>
       </c>
       <c r="AA54" s="86">
-        <v>90.9</v>
+        <v>146.9</v>
       </c>
     </row>
     <row r="55" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="34" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B55" s="117">
-        <v>3936</v>
+        <v>2616</v>
       </c>
       <c r="C55" s="117">
-        <v>3957</v>
+        <v>2482</v>
       </c>
       <c r="D55" s="117">
-        <v>3786</v>
+        <v>2491</v>
       </c>
       <c r="E55" s="117">
-        <v>3657</v>
+        <v>2873</v>
       </c>
       <c r="F55" s="117">
-        <v>3737</v>
+        <v>3474</v>
       </c>
       <c r="G55" s="117">
-        <v>3768</v>
+        <v>3748</v>
       </c>
       <c r="H55" s="117">
-        <v>3279</v>
+        <v>4307</v>
       </c>
       <c r="I55" s="117">
-        <v>3454</v>
+        <v>4287</v>
       </c>
       <c r="J55" s="117">
-        <v>3417</v>
+        <v>4244</v>
       </c>
       <c r="K55" s="117">
-        <v>3275</v>
+        <v>5618</v>
       </c>
       <c r="L55" s="117">
-        <v>3030</v>
+        <v>5758</v>
       </c>
       <c r="M55" s="117">
-        <v>2861</v>
+        <v>5696</v>
       </c>
       <c r="N55" s="118">
-        <v>2862</v>
+        <v>5320</v>
       </c>
       <c r="O55" s="70">
-        <v>84.6</v>
+        <v>56.2</v>
       </c>
       <c r="P55" s="56">
-        <v>83.3</v>
+        <v>52.3</v>
       </c>
       <c r="Q55" s="56">
-        <v>78.599999999999994</v>
+        <v>51.7</v>
       </c>
       <c r="R55" s="56">
-        <v>74.7</v>
+        <v>58.7</v>
       </c>
       <c r="S55" s="56">
-        <v>74.8</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="T55" s="70">
-        <v>73.900000000000006</v>
+        <v>73.5</v>
       </c>
       <c r="U55" s="56">
-        <v>63</v>
+        <v>82.8</v>
       </c>
       <c r="V55" s="56">
-        <v>65</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="W55" s="56">
-        <v>62.7</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="X55" s="56">
-        <v>58.7</v>
+        <v>100.7</v>
       </c>
       <c r="Y55" s="86">
-        <v>53</v>
+        <v>100.8</v>
       </c>
       <c r="Z55" s="86">
-        <v>49</v>
+        <v>97.6</v>
       </c>
       <c r="AA55" s="86">
-        <v>48.9</v>
+        <v>90.9</v>
       </c>
     </row>
     <row r="56" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="34" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="B56" s="117">
-        <v>7797</v>
+        <v>3936</v>
       </c>
       <c r="C56" s="117">
-        <v>14149</v>
+        <v>3957</v>
       </c>
       <c r="D56" s="117">
-        <v>15173</v>
+        <v>3786</v>
       </c>
       <c r="E56" s="117">
-        <v>13314</v>
+        <v>3657</v>
       </c>
       <c r="F56" s="117">
-        <v>13480</v>
+        <v>3737</v>
       </c>
       <c r="G56" s="117">
-        <v>11850</v>
+        <v>3768</v>
       </c>
       <c r="H56" s="117">
-        <v>10487</v>
+        <v>3279</v>
       </c>
       <c r="I56" s="117">
-        <v>8726</v>
+        <v>3454</v>
       </c>
       <c r="J56" s="117">
-        <v>8350</v>
-      </c>
-      <c r="K56" s="123">
-        <v>10516</v>
-      </c>
-      <c r="L56" s="123">
-        <v>9053</v>
-      </c>
-      <c r="M56" s="123">
-        <v>6244</v>
-      </c>
-      <c r="N56" s="124">
-        <v>4199</v>
+        <v>3417</v>
+      </c>
+      <c r="K56" s="117">
+        <v>3275</v>
+      </c>
+      <c r="L56" s="117">
+        <v>3030</v>
+      </c>
+      <c r="M56" s="117">
+        <v>2861</v>
+      </c>
+      <c r="N56" s="118">
+        <v>2862</v>
       </c>
       <c r="O56" s="70">
-        <v>167.5</v>
+        <v>84.6</v>
       </c>
       <c r="P56" s="56">
-        <v>297.89999999999998</v>
+        <v>83.3</v>
       </c>
       <c r="Q56" s="56">
-        <v>315</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="R56" s="56">
-        <v>271.89999999999998</v>
+        <v>74.7</v>
       </c>
       <c r="S56" s="56">
-        <v>269.89999999999998</v>
+        <v>74.8</v>
       </c>
       <c r="T56" s="70">
-        <v>232.5</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="U56" s="56">
-        <v>201.6</v>
+        <v>63</v>
       </c>
       <c r="V56" s="56">
-        <v>164.1</v>
+        <v>65</v>
       </c>
       <c r="W56" s="56">
-        <v>153.19999999999999</v>
-      </c>
-      <c r="X56" s="74">
-        <v>188.5</v>
+        <v>62.7</v>
+      </c>
+      <c r="X56" s="56">
+        <v>58.7</v>
       </c>
       <c r="Y56" s="86">
-        <v>158.5</v>
+        <v>53</v>
       </c>
       <c r="Z56" s="86">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="AA56" s="86">
-        <v>71.8</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="57" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="34" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="B57" s="117">
-        <v>1758</v>
+        <v>7797</v>
       </c>
       <c r="C57" s="117">
-        <v>2158</v>
+        <v>14149</v>
       </c>
       <c r="D57" s="117">
-        <v>2285</v>
+        <v>15173</v>
       </c>
       <c r="E57" s="117">
-        <v>2886</v>
+        <v>13314</v>
       </c>
       <c r="F57" s="117">
-        <v>3187</v>
+        <v>13480</v>
       </c>
       <c r="G57" s="117">
-        <v>3385</v>
+        <v>11850</v>
       </c>
       <c r="H57" s="117">
-        <v>3821</v>
+        <v>10487</v>
       </c>
       <c r="I57" s="117">
-        <v>4046</v>
+        <v>8726</v>
       </c>
       <c r="J57" s="117">
-        <v>4583</v>
-      </c>
-      <c r="K57" s="117">
-        <v>4752</v>
-      </c>
-      <c r="L57" s="117">
-        <v>5043</v>
-      </c>
-      <c r="M57" s="117">
-        <v>5328</v>
-      </c>
-      <c r="N57" s="118">
-        <v>4949</v>
+        <v>8350</v>
+      </c>
+      <c r="K57" s="123">
+        <v>10516</v>
+      </c>
+      <c r="L57" s="123">
+        <v>9053</v>
+      </c>
+      <c r="M57" s="123">
+        <v>6244</v>
+      </c>
+      <c r="N57" s="124">
+        <v>4199</v>
       </c>
       <c r="O57" s="70">
-        <v>37.799999999999997</v>
+        <v>167.5</v>
       </c>
       <c r="P57" s="56">
-        <v>45.4</v>
+        <v>297.89999999999998</v>
       </c>
       <c r="Q57" s="56">
-        <v>47.4</v>
+        <v>315</v>
       </c>
       <c r="R57" s="56">
-        <v>58.9</v>
+        <v>271.89999999999998</v>
       </c>
       <c r="S57" s="56">
-        <v>63.8</v>
+        <v>269.89999999999998</v>
       </c>
       <c r="T57" s="70">
-        <v>66.400000000000006</v>
+        <v>232.5</v>
       </c>
       <c r="U57" s="56">
-        <v>73.400000000000006</v>
+        <v>201.6</v>
       </c>
       <c r="V57" s="56">
-        <v>76.099999999999994</v>
+        <v>164.1</v>
       </c>
       <c r="W57" s="56">
-        <v>84.1</v>
-      </c>
-      <c r="X57" s="56">
-        <v>85.2</v>
+        <v>153.19999999999999</v>
+      </c>
+      <c r="X57" s="74">
+        <v>188.5</v>
       </c>
       <c r="Y57" s="86">
-        <v>88.3</v>
+        <v>158.5</v>
       </c>
       <c r="Z57" s="86">
-        <v>91.3</v>
+        <v>107</v>
       </c>
       <c r="AA57" s="86">
-        <v>84.6</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="58" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="117">
+        <v>1758</v>
+      </c>
+      <c r="C58" s="117">
+        <v>2158</v>
+      </c>
+      <c r="D58" s="117">
+        <v>2285</v>
+      </c>
+      <c r="E58" s="117">
+        <v>2886</v>
+      </c>
+      <c r="F58" s="117">
+        <v>3187</v>
+      </c>
+      <c r="G58" s="117">
+        <v>3385</v>
+      </c>
+      <c r="H58" s="117">
+        <v>3821</v>
+      </c>
+      <c r="I58" s="117">
+        <v>4046</v>
+      </c>
+      <c r="J58" s="117">
+        <v>4583</v>
+      </c>
+      <c r="K58" s="117">
+        <v>4752</v>
+      </c>
+      <c r="L58" s="117">
+        <v>5043</v>
+      </c>
+      <c r="M58" s="117">
+        <v>5328</v>
+      </c>
+      <c r="N58" s="118">
+        <v>4949</v>
+      </c>
+      <c r="O58" s="70">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="P58" s="56">
+        <v>45.4</v>
+      </c>
+      <c r="Q58" s="56">
+        <v>47.4</v>
+      </c>
+      <c r="R58" s="56">
+        <v>58.9</v>
+      </c>
+      <c r="S58" s="56">
+        <v>63.8</v>
+      </c>
+      <c r="T58" s="70">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="U58" s="56">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="V58" s="56">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="W58" s="56">
+        <v>84.1</v>
+      </c>
+      <c r="X58" s="56">
+        <v>85.2</v>
+      </c>
+      <c r="Y58" s="86">
+        <v>88.3</v>
+      </c>
+      <c r="Z58" s="86">
+        <v>91.3</v>
+      </c>
+      <c r="AA58" s="86">
+        <v>84.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="117">
+      <c r="B59" s="117">
         <v>8488</v>
       </c>
-      <c r="C58" s="117">
+      <c r="C59" s="117">
         <v>9497</v>
       </c>
-      <c r="D58" s="117">
+      <c r="D59" s="117">
         <v>10994</v>
       </c>
-      <c r="E58" s="117">
+      <c r="E59" s="117">
         <v>12442</v>
       </c>
-      <c r="F58" s="117">
+      <c r="F59" s="117">
         <v>15691</v>
       </c>
-      <c r="G58" s="117">
+      <c r="G59" s="117">
         <v>13372</v>
       </c>
-      <c r="H58" s="117">
+      <c r="H59" s="117">
         <v>13067</v>
       </c>
-      <c r="I58" s="117">
+      <c r="I59" s="117">
         <v>11769</v>
       </c>
-      <c r="J58" s="117">
+      <c r="J59" s="117">
         <v>8689</v>
       </c>
-      <c r="K58" s="123">
+      <c r="K59" s="123">
         <v>7601</v>
       </c>
-      <c r="L58" s="123">
+      <c r="L59" s="123">
         <v>6165</v>
       </c>
-      <c r="M58" s="123">
+      <c r="M59" s="123">
         <v>7630</v>
       </c>
-      <c r="N58" s="124">
+      <c r="N59" s="124">
         <v>19692</v>
       </c>
-      <c r="O58" s="70">
+      <c r="O59" s="70">
         <v>182.3</v>
       </c>
-      <c r="P58" s="56">
+      <c r="P59" s="56">
         <v>200</v>
       </c>
-      <c r="Q58" s="56">
+      <c r="Q59" s="56">
         <v>228.3</v>
       </c>
-      <c r="R58" s="56">
+      <c r="R59" s="56">
         <v>254.1</v>
       </c>
-      <c r="S58" s="56">
+      <c r="S59" s="56">
         <v>314.2</v>
       </c>
-      <c r="T58" s="70">
+      <c r="T59" s="70">
         <v>262.3</v>
       </c>
-      <c r="U58" s="56">
+      <c r="U59" s="56">
         <v>251.2</v>
       </c>
-      <c r="V58" s="56">
+      <c r="V59" s="56">
         <v>221.4</v>
       </c>
-      <c r="W58" s="56">
+      <c r="W59" s="56">
         <v>159.4</v>
       </c>
-      <c r="X58" s="74">
+      <c r="X59" s="74">
         <v>136.30000000000001</v>
       </c>
-      <c r="Y58" s="86">
+      <c r="Y59" s="86">
         <v>107.9</v>
       </c>
-      <c r="Z58" s="86">
+      <c r="Z59" s="86">
         <v>130.80000000000001</v>
       </c>
-      <c r="AA58" s="86">
+      <c r="AA59" s="86">
         <v>336.6</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="25.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="79" t="s">
+    <row r="60" spans="1:27" ht="25.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="80">
+      <c r="B60" s="80">
         <v>67453</v>
       </c>
-      <c r="C59" s="80">
+      <c r="C60" s="80">
         <v>76410</v>
       </c>
-      <c r="D59" s="80">
+      <c r="D60" s="80">
         <v>78139</v>
       </c>
-      <c r="E59" s="80">
+      <c r="E60" s="80">
         <v>81718</v>
       </c>
-      <c r="F59" s="80">
+      <c r="F60" s="80">
         <v>87695</v>
       </c>
-      <c r="G59" s="80">
+      <c r="G60" s="80">
         <v>83106</v>
       </c>
-      <c r="H59" s="80">
+      <c r="H60" s="80">
         <v>80933</v>
       </c>
-      <c r="I59" s="80">
+      <c r="I60" s="80">
         <v>77770</v>
       </c>
-      <c r="J59" s="80">
+      <c r="J60" s="80">
         <v>75860</v>
       </c>
-      <c r="K59" s="125">
+      <c r="K60" s="125">
         <v>77286</v>
       </c>
-      <c r="L59" s="125">
+      <c r="L60" s="125">
         <v>75996</v>
       </c>
-      <c r="M59" s="125">
+      <c r="M60" s="125">
         <v>74189</v>
       </c>
-      <c r="N59" s="126">
+      <c r="N60" s="126">
         <v>78554</v>
       </c>
-      <c r="O59" s="71">
+      <c r="O60" s="71">
         <v>1449</v>
       </c>
-      <c r="P59" s="81">
+      <c r="P60" s="81">
         <v>1608.9</v>
       </c>
-      <c r="Q59" s="81">
+      <c r="Q60" s="81">
         <v>1622.4</v>
       </c>
-      <c r="R59" s="81">
+      <c r="R60" s="81">
         <v>1668.6</v>
       </c>
-      <c r="S59" s="81">
+      <c r="S60" s="81">
         <v>1755.8</v>
       </c>
-      <c r="T59" s="71">
+      <c r="T60" s="71">
         <v>1630.4</v>
       </c>
-      <c r="U59" s="81">
+      <c r="U60" s="81">
         <v>1555.7</v>
       </c>
-      <c r="V59" s="81">
+      <c r="V60" s="81">
         <v>1462.8</v>
       </c>
-      <c r="W59" s="81">
+      <c r="W60" s="81">
         <v>1391.7</v>
       </c>
-      <c r="X59" s="95">
+      <c r="X60" s="95">
         <v>1385.5</v>
       </c>
-      <c r="Y59" s="87">
+      <c r="Y60" s="87">
         <v>1330.5</v>
       </c>
-      <c r="Z59" s="87">
+      <c r="Z60" s="87">
         <v>1271.5</v>
       </c>
-      <c r="AA59" s="87">
+      <c r="AA60" s="87">
         <v>1342.7</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="90"/>
-    </row>
     <row r="61" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="90" t="s">
+      <c r="A61" s="90"/>
+    </row>
+    <row r="62" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="90" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="111" t="s">
+    <row r="63" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="111" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="90" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="90" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="90" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="90" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="90" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="90"/>
-    </row>
     <row r="72" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="78"/>
+      <c r="A72" s="90"/>
     </row>
     <row r="73" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="84" t="str">
+      <c r="A73" s="78"/>
+    </row>
+    <row r="74" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="84" t="str">
         <f>Contents!B33</f>
         <v>© Commonwealth of Australia 2022</v>
       </c>
@@ -38120,7 +38195,7 @@
     <mergeCell ref="B42:AA42"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A73" r:id="rId1" display="© Commonwealth of Australia 2018" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A74" r:id="rId1" display="© Commonwealth of Australia 2018" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.14000000000000001" right="0.12" top="0.28999999999999998" bottom="0.22" header="0.22" footer="0.18"/>
@@ -38207,36 +38282,36 @@
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="90"/>
-      <c r="B5" s="170" t="s">
+      <c r="B5" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="171"/>
-      <c r="O5" s="172" t="s">
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="172"/>
-      <c r="R5" s="172"/>
-      <c r="S5" s="172"/>
-      <c r="T5" s="172"/>
-      <c r="U5" s="172"/>
-      <c r="V5" s="172"/>
-      <c r="W5" s="172"/>
-      <c r="X5" s="172"/>
-      <c r="Y5" s="172"/>
-      <c r="Z5" s="172"/>
-      <c r="AA5" s="172"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="181"/>
+      <c r="R5" s="181"/>
+      <c r="S5" s="181"/>
+      <c r="T5" s="181"/>
+      <c r="U5" s="181"/>
+      <c r="V5" s="181"/>
+      <c r="W5" s="181"/>
+      <c r="X5" s="181"/>
+      <c r="Y5" s="181"/>
+      <c r="Z5" s="181"/>
+      <c r="AA5" s="181"/>
     </row>
     <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
@@ -38323,34 +38398,34 @@
     </row>
     <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="61"/>
-      <c r="B7" s="173" t="s">
+      <c r="B7" s="182" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="173"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="173"/>
-      <c r="S7" s="173"/>
-      <c r="T7" s="173"/>
-      <c r="U7" s="173"/>
-      <c r="V7" s="173"/>
-      <c r="W7" s="173"/>
-      <c r="X7" s="173"/>
-      <c r="Y7" s="173"/>
-      <c r="Z7" s="173"/>
-      <c r="AA7" s="173"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="182"/>
+      <c r="K7" s="182"/>
+      <c r="L7" s="182"/>
+      <c r="M7" s="182"/>
+      <c r="N7" s="182"/>
+      <c r="O7" s="182"/>
+      <c r="P7" s="182"/>
+      <c r="Q7" s="182"/>
+      <c r="R7" s="182"/>
+      <c r="S7" s="182"/>
+      <c r="T7" s="182"/>
+      <c r="U7" s="182"/>
+      <c r="V7" s="182"/>
+      <c r="W7" s="182"/>
+      <c r="X7" s="182"/>
+      <c r="Y7" s="182"/>
+      <c r="Z7" s="182"/>
+      <c r="AA7" s="182"/>
     </row>
     <row r="8" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
@@ -39765,34 +39840,34 @@
     </row>
     <row r="25" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="60"/>
-      <c r="B25" s="174" t="s">
+      <c r="B25" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="174"/>
-      <c r="D25" s="174"/>
-      <c r="E25" s="174"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="174"/>
-      <c r="K25" s="174"/>
-      <c r="L25" s="174"/>
-      <c r="M25" s="174"/>
-      <c r="N25" s="174"/>
-      <c r="O25" s="174"/>
-      <c r="P25" s="174"/>
-      <c r="Q25" s="174"/>
-      <c r="R25" s="174"/>
-      <c r="S25" s="174"/>
-      <c r="T25" s="174"/>
-      <c r="U25" s="174"/>
-      <c r="V25" s="174"/>
-      <c r="W25" s="174"/>
-      <c r="X25" s="174"/>
-      <c r="Y25" s="174"/>
-      <c r="Z25" s="174"/>
-      <c r="AA25" s="174"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="183"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="183"/>
+      <c r="I25" s="183"/>
+      <c r="J25" s="183"/>
+      <c r="K25" s="183"/>
+      <c r="L25" s="183"/>
+      <c r="M25" s="183"/>
+      <c r="N25" s="183"/>
+      <c r="O25" s="183"/>
+      <c r="P25" s="183"/>
+      <c r="Q25" s="183"/>
+      <c r="R25" s="183"/>
+      <c r="S25" s="183"/>
+      <c r="T25" s="183"/>
+      <c r="U25" s="183"/>
+      <c r="V25" s="183"/>
+      <c r="W25" s="183"/>
+      <c r="X25" s="183"/>
+      <c r="Y25" s="183"/>
+      <c r="Z25" s="183"/>
+      <c r="AA25" s="183"/>
     </row>
     <row r="26" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
@@ -41207,34 +41282,34 @@
     </row>
     <row r="43" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="60"/>
-      <c r="B43" s="174" t="s">
+      <c r="B43" s="183" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="174"/>
-      <c r="D43" s="174"/>
-      <c r="E43" s="174"/>
-      <c r="F43" s="174"/>
-      <c r="G43" s="174"/>
-      <c r="H43" s="174"/>
-      <c r="I43" s="174"/>
-      <c r="J43" s="174"/>
-      <c r="K43" s="174"/>
-      <c r="L43" s="174"/>
-      <c r="M43" s="174"/>
-      <c r="N43" s="174"/>
-      <c r="O43" s="174"/>
-      <c r="P43" s="174"/>
-      <c r="Q43" s="174"/>
-      <c r="R43" s="174"/>
-      <c r="S43" s="174"/>
-      <c r="T43" s="174"/>
-      <c r="U43" s="174"/>
-      <c r="V43" s="174"/>
-      <c r="W43" s="174"/>
-      <c r="X43" s="174"/>
-      <c r="Y43" s="174"/>
-      <c r="Z43" s="174"/>
-      <c r="AA43" s="174"/>
+      <c r="C43" s="183"/>
+      <c r="D43" s="183"/>
+      <c r="E43" s="183"/>
+      <c r="F43" s="183"/>
+      <c r="G43" s="183"/>
+      <c r="H43" s="183"/>
+      <c r="I43" s="183"/>
+      <c r="J43" s="183"/>
+      <c r="K43" s="183"/>
+      <c r="L43" s="183"/>
+      <c r="M43" s="183"/>
+      <c r="N43" s="183"/>
+      <c r="O43" s="183"/>
+      <c r="P43" s="183"/>
+      <c r="Q43" s="183"/>
+      <c r="R43" s="183"/>
+      <c r="S43" s="183"/>
+      <c r="T43" s="183"/>
+      <c r="U43" s="183"/>
+      <c r="V43" s="183"/>
+      <c r="W43" s="183"/>
+      <c r="X43" s="183"/>
+      <c r="Y43" s="183"/>
+      <c r="Z43" s="183"/>
+      <c r="AA43" s="183"/>
     </row>
     <row r="44" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="34" t="s">
@@ -42812,36 +42887,36 @@
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="90"/>
-      <c r="B5" s="170" t="s">
+      <c r="B5" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="171"/>
-      <c r="O5" s="172" t="s">
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="172"/>
-      <c r="R5" s="172"/>
-      <c r="S5" s="172"/>
-      <c r="T5" s="172"/>
-      <c r="U5" s="172"/>
-      <c r="V5" s="172"/>
-      <c r="W5" s="172"/>
-      <c r="X5" s="172"/>
-      <c r="Y5" s="172"/>
-      <c r="Z5" s="172"/>
-      <c r="AA5" s="172"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="181"/>
+      <c r="R5" s="181"/>
+      <c r="S5" s="181"/>
+      <c r="T5" s="181"/>
+      <c r="U5" s="181"/>
+      <c r="V5" s="181"/>
+      <c r="W5" s="181"/>
+      <c r="X5" s="181"/>
+      <c r="Y5" s="181"/>
+      <c r="Z5" s="181"/>
+      <c r="AA5" s="181"/>
     </row>
     <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
@@ -42928,34 +43003,34 @@
     </row>
     <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="61"/>
-      <c r="B7" s="173" t="s">
+      <c r="B7" s="182" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="173"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="173"/>
-      <c r="S7" s="173"/>
-      <c r="T7" s="173"/>
-      <c r="U7" s="173"/>
-      <c r="V7" s="173"/>
-      <c r="W7" s="173"/>
-      <c r="X7" s="173"/>
-      <c r="Y7" s="173"/>
-      <c r="Z7" s="173"/>
-      <c r="AA7" s="173"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="182"/>
+      <c r="K7" s="182"/>
+      <c r="L7" s="182"/>
+      <c r="M7" s="182"/>
+      <c r="N7" s="182"/>
+      <c r="O7" s="182"/>
+      <c r="P7" s="182"/>
+      <c r="Q7" s="182"/>
+      <c r="R7" s="182"/>
+      <c r="S7" s="182"/>
+      <c r="T7" s="182"/>
+      <c r="U7" s="182"/>
+      <c r="V7" s="182"/>
+      <c r="W7" s="182"/>
+      <c r="X7" s="182"/>
+      <c r="Y7" s="182"/>
+      <c r="Z7" s="182"/>
+      <c r="AA7" s="182"/>
     </row>
     <row r="8" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
@@ -44370,34 +44445,34 @@
     </row>
     <row r="25" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="60"/>
-      <c r="B25" s="174" t="s">
+      <c r="B25" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="174"/>
-      <c r="D25" s="174"/>
-      <c r="E25" s="174"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="174"/>
-      <c r="K25" s="174"/>
-      <c r="L25" s="174"/>
-      <c r="M25" s="174"/>
-      <c r="N25" s="174"/>
-      <c r="O25" s="174"/>
-      <c r="P25" s="174"/>
-      <c r="Q25" s="174"/>
-      <c r="R25" s="174"/>
-      <c r="S25" s="174"/>
-      <c r="T25" s="174"/>
-      <c r="U25" s="174"/>
-      <c r="V25" s="174"/>
-      <c r="W25" s="174"/>
-      <c r="X25" s="174"/>
-      <c r="Y25" s="174"/>
-      <c r="Z25" s="174"/>
-      <c r="AA25" s="174"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="183"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="183"/>
+      <c r="I25" s="183"/>
+      <c r="J25" s="183"/>
+      <c r="K25" s="183"/>
+      <c r="L25" s="183"/>
+      <c r="M25" s="183"/>
+      <c r="N25" s="183"/>
+      <c r="O25" s="183"/>
+      <c r="P25" s="183"/>
+      <c r="Q25" s="183"/>
+      <c r="R25" s="183"/>
+      <c r="S25" s="183"/>
+      <c r="T25" s="183"/>
+      <c r="U25" s="183"/>
+      <c r="V25" s="183"/>
+      <c r="W25" s="183"/>
+      <c r="X25" s="183"/>
+      <c r="Y25" s="183"/>
+      <c r="Z25" s="183"/>
+      <c r="AA25" s="183"/>
     </row>
     <row r="26" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
@@ -45812,34 +45887,34 @@
     </row>
     <row r="43" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="60"/>
-      <c r="B43" s="174" t="s">
+      <c r="B43" s="183" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="174"/>
-      <c r="D43" s="174"/>
-      <c r="E43" s="174"/>
-      <c r="F43" s="174"/>
-      <c r="G43" s="174"/>
-      <c r="H43" s="174"/>
-      <c r="I43" s="174"/>
-      <c r="J43" s="174"/>
-      <c r="K43" s="174"/>
-      <c r="L43" s="174"/>
-      <c r="M43" s="174"/>
-      <c r="N43" s="174"/>
-      <c r="O43" s="174"/>
-      <c r="P43" s="174"/>
-      <c r="Q43" s="174"/>
-      <c r="R43" s="174"/>
-      <c r="S43" s="174"/>
-      <c r="T43" s="174"/>
-      <c r="U43" s="174"/>
-      <c r="V43" s="174"/>
-      <c r="W43" s="174"/>
-      <c r="X43" s="174"/>
-      <c r="Y43" s="174"/>
-      <c r="Z43" s="174"/>
-      <c r="AA43" s="174"/>
+      <c r="C43" s="183"/>
+      <c r="D43" s="183"/>
+      <c r="E43" s="183"/>
+      <c r="F43" s="183"/>
+      <c r="G43" s="183"/>
+      <c r="H43" s="183"/>
+      <c r="I43" s="183"/>
+      <c r="J43" s="183"/>
+      <c r="K43" s="183"/>
+      <c r="L43" s="183"/>
+      <c r="M43" s="183"/>
+      <c r="N43" s="183"/>
+      <c r="O43" s="183"/>
+      <c r="P43" s="183"/>
+      <c r="Q43" s="183"/>
+      <c r="R43" s="183"/>
+      <c r="S43" s="183"/>
+      <c r="T43" s="183"/>
+      <c r="U43" s="183"/>
+      <c r="V43" s="183"/>
+      <c r="W43" s="183"/>
+      <c r="X43" s="183"/>
+      <c r="Y43" s="183"/>
+      <c r="Z43" s="183"/>
+      <c r="AA43" s="183"/>
     </row>
     <row r="44" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="34" t="s">
@@ -47421,36 +47496,36 @@
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="90"/>
-      <c r="B5" s="170" t="s">
+      <c r="B5" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="171"/>
-      <c r="O5" s="172" t="s">
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="172"/>
-      <c r="R5" s="172"/>
-      <c r="S5" s="172"/>
-      <c r="T5" s="172"/>
-      <c r="U5" s="172"/>
-      <c r="V5" s="172"/>
-      <c r="W5" s="172"/>
-      <c r="X5" s="172"/>
-      <c r="Y5" s="172"/>
-      <c r="Z5" s="172"/>
-      <c r="AA5" s="172"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="181"/>
+      <c r="R5" s="181"/>
+      <c r="S5" s="181"/>
+      <c r="T5" s="181"/>
+      <c r="U5" s="181"/>
+      <c r="V5" s="181"/>
+      <c r="W5" s="181"/>
+      <c r="X5" s="181"/>
+      <c r="Y5" s="181"/>
+      <c r="Z5" s="181"/>
+      <c r="AA5" s="181"/>
     </row>
     <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
@@ -47537,34 +47612,34 @@
     </row>
     <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="61"/>
-      <c r="B7" s="173" t="s">
+      <c r="B7" s="182" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="173"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="173"/>
-      <c r="S7" s="173"/>
-      <c r="T7" s="173"/>
-      <c r="U7" s="173"/>
-      <c r="V7" s="173"/>
-      <c r="W7" s="173"/>
-      <c r="X7" s="173"/>
-      <c r="Y7" s="173"/>
-      <c r="Z7" s="173"/>
-      <c r="AA7" s="173"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="182"/>
+      <c r="K7" s="182"/>
+      <c r="L7" s="182"/>
+      <c r="M7" s="182"/>
+      <c r="N7" s="182"/>
+      <c r="O7" s="182"/>
+      <c r="P7" s="182"/>
+      <c r="Q7" s="182"/>
+      <c r="R7" s="182"/>
+      <c r="S7" s="182"/>
+      <c r="T7" s="182"/>
+      <c r="U7" s="182"/>
+      <c r="V7" s="182"/>
+      <c r="W7" s="182"/>
+      <c r="X7" s="182"/>
+      <c r="Y7" s="182"/>
+      <c r="Z7" s="182"/>
+      <c r="AA7" s="182"/>
     </row>
     <row r="8" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
@@ -48896,34 +48971,34 @@
     </row>
     <row r="24" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="60"/>
-      <c r="B24" s="174" t="s">
+      <c r="B24" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="174"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="174"/>
-      <c r="K24" s="174"/>
-      <c r="L24" s="174"/>
-      <c r="M24" s="174"/>
-      <c r="N24" s="174"/>
-      <c r="O24" s="174"/>
-      <c r="P24" s="174"/>
-      <c r="Q24" s="174"/>
-      <c r="R24" s="174"/>
-      <c r="S24" s="174"/>
-      <c r="T24" s="174"/>
-      <c r="U24" s="174"/>
-      <c r="V24" s="174"/>
-      <c r="W24" s="174"/>
-      <c r="X24" s="174"/>
-      <c r="Y24" s="174"/>
-      <c r="Z24" s="174"/>
-      <c r="AA24" s="174"/>
+      <c r="C24" s="183"/>
+      <c r="D24" s="183"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="183"/>
+      <c r="L24" s="183"/>
+      <c r="M24" s="183"/>
+      <c r="N24" s="183"/>
+      <c r="O24" s="183"/>
+      <c r="P24" s="183"/>
+      <c r="Q24" s="183"/>
+      <c r="R24" s="183"/>
+      <c r="S24" s="183"/>
+      <c r="T24" s="183"/>
+      <c r="U24" s="183"/>
+      <c r="V24" s="183"/>
+      <c r="W24" s="183"/>
+      <c r="X24" s="183"/>
+      <c r="Y24" s="183"/>
+      <c r="Z24" s="183"/>
+      <c r="AA24" s="183"/>
     </row>
     <row r="25" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
@@ -50255,34 +50330,34 @@
     </row>
     <row r="41" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="60"/>
-      <c r="B41" s="174" t="s">
+      <c r="B41" s="183" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="174"/>
-      <c r="D41" s="174"/>
-      <c r="E41" s="174"/>
-      <c r="F41" s="174"/>
-      <c r="G41" s="174"/>
-      <c r="H41" s="174"/>
-      <c r="I41" s="174"/>
-      <c r="J41" s="174"/>
-      <c r="K41" s="174"/>
-      <c r="L41" s="174"/>
-      <c r="M41" s="174"/>
-      <c r="N41" s="174"/>
-      <c r="O41" s="174"/>
-      <c r="P41" s="174"/>
-      <c r="Q41" s="174"/>
-      <c r="R41" s="174"/>
-      <c r="S41" s="174"/>
-      <c r="T41" s="174"/>
-      <c r="U41" s="174"/>
-      <c r="V41" s="174"/>
-      <c r="W41" s="174"/>
-      <c r="X41" s="174"/>
-      <c r="Y41" s="174"/>
-      <c r="Z41" s="174"/>
-      <c r="AA41" s="174"/>
+      <c r="C41" s="183"/>
+      <c r="D41" s="183"/>
+      <c r="E41" s="183"/>
+      <c r="F41" s="183"/>
+      <c r="G41" s="183"/>
+      <c r="H41" s="183"/>
+      <c r="I41" s="183"/>
+      <c r="J41" s="183"/>
+      <c r="K41" s="183"/>
+      <c r="L41" s="183"/>
+      <c r="M41" s="183"/>
+      <c r="N41" s="183"/>
+      <c r="O41" s="183"/>
+      <c r="P41" s="183"/>
+      <c r="Q41" s="183"/>
+      <c r="R41" s="183"/>
+      <c r="S41" s="183"/>
+      <c r="T41" s="183"/>
+      <c r="U41" s="183"/>
+      <c r="V41" s="183"/>
+      <c r="W41" s="183"/>
+      <c r="X41" s="183"/>
+      <c r="Y41" s="183"/>
+      <c r="Z41" s="183"/>
+      <c r="AA41" s="183"/>
     </row>
     <row r="42" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="34" t="s">
@@ -51693,1605 +51768,2415 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E831330C-EAB7-4807-90E0-A68D02056CE5}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.88671875" style="29"/>
     <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="78"/>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="165" t="s">
         <v>222</v>
       </c>
       <c r="C1" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="F1" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="I1" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>232</v>
-      </c>
       <c r="J1" s="34" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="K1" s="34" t="s">
         <v>37</v>
       </c>
       <c r="L1" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="S1" s="34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="170" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="166">
+        <v>146</v>
+      </c>
+      <c r="D2" s="166">
+        <v>9953</v>
+      </c>
+      <c r="E2" s="166">
+        <v>1243</v>
+      </c>
+      <c r="F2" s="166">
+        <v>578</v>
+      </c>
+      <c r="G2" s="166">
+        <v>534</v>
+      </c>
+      <c r="H2" s="166">
+        <v>399</v>
+      </c>
+      <c r="I2" s="166">
+        <v>2759</v>
+      </c>
+      <c r="J2" s="166">
+        <v>9172</v>
+      </c>
+      <c r="K2" s="166">
+        <v>0</v>
+      </c>
+      <c r="L2" s="166">
+        <v>1499</v>
+      </c>
+      <c r="M2" s="166">
+        <v>5471</v>
+      </c>
+      <c r="N2" s="166">
+        <v>2360</v>
+      </c>
+      <c r="O2" s="166">
+        <v>3295</v>
+      </c>
+      <c r="P2" s="166">
+        <v>6583</v>
+      </c>
+      <c r="Q2" s="166">
+        <v>1360</v>
+      </c>
+      <c r="R2" s="166">
+        <v>7618</v>
+      </c>
+      <c r="S2" s="191">
+        <f>SUM(C2:R2)</f>
+        <v>52970</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="170" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="166">
+        <v>117</v>
+      </c>
+      <c r="D3" s="166">
+        <v>10122</v>
+      </c>
+      <c r="E3" s="166">
+        <v>1291</v>
+      </c>
+      <c r="F3" s="166">
+        <v>629</v>
+      </c>
+      <c r="G3" s="166">
+        <v>626</v>
+      </c>
+      <c r="H3" s="166">
+        <v>421</v>
+      </c>
+      <c r="I3" s="166">
+        <v>2544</v>
+      </c>
+      <c r="J3" s="166">
+        <v>9622</v>
+      </c>
+      <c r="K3" s="166">
+        <v>0</v>
+      </c>
+      <c r="L3" s="166">
+        <v>1487</v>
+      </c>
+      <c r="M3" s="166">
+        <v>5623</v>
+      </c>
+      <c r="N3" s="166">
+        <v>2241</v>
+      </c>
+      <c r="O3" s="166">
+        <v>3299</v>
+      </c>
+      <c r="P3" s="166">
+        <v>12198</v>
+      </c>
+      <c r="Q3" s="166">
+        <v>1671</v>
+      </c>
+      <c r="R3" s="166">
+        <v>8351</v>
+      </c>
+      <c r="S3" s="191">
+        <f t="shared" ref="S3:S40" si="0">SUM(C3:R3)</f>
+        <v>60242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="170" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="166">
+        <v>89</v>
+      </c>
+      <c r="D4" s="166">
+        <v>9915</v>
+      </c>
+      <c r="E4" s="166">
+        <v>1159</v>
+      </c>
+      <c r="F4" s="166">
+        <v>653</v>
+      </c>
+      <c r="G4" s="166">
+        <v>619</v>
+      </c>
+      <c r="H4" s="166">
+        <v>453</v>
+      </c>
+      <c r="I4" s="166">
+        <v>2428</v>
+      </c>
+      <c r="J4" s="166">
+        <v>10087</v>
+      </c>
+      <c r="K4" s="166">
+        <v>0</v>
+      </c>
+      <c r="L4" s="166">
+        <v>1302</v>
+      </c>
+      <c r="M4" s="166">
+        <v>5409</v>
+      </c>
+      <c r="N4" s="166">
+        <v>2178</v>
+      </c>
+      <c r="O4" s="166">
+        <v>3166</v>
+      </c>
+      <c r="P4" s="166">
+        <v>13069</v>
+      </c>
+      <c r="Q4" s="166">
+        <v>1815</v>
+      </c>
+      <c r="R4" s="166">
+        <v>9375</v>
+      </c>
+      <c r="S4" s="191">
+        <f t="shared" si="0"/>
+        <v>61717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="170" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="170" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="166">
+        <v>98</v>
+      </c>
+      <c r="D5" s="166">
+        <v>10558</v>
+      </c>
+      <c r="E5" s="166">
+        <v>1326</v>
+      </c>
+      <c r="F5" s="166">
+        <v>699</v>
+      </c>
+      <c r="G5" s="166">
+        <v>735</v>
+      </c>
+      <c r="H5" s="166">
+        <v>486</v>
+      </c>
+      <c r="I5" s="166">
+        <v>2246</v>
+      </c>
+      <c r="J5" s="166">
+        <v>11178</v>
+      </c>
+      <c r="K5" s="166">
+        <v>0</v>
+      </c>
+      <c r="L5" s="166">
+        <v>1401</v>
+      </c>
+      <c r="M5" s="166">
+        <v>6283</v>
+      </c>
+      <c r="N5" s="166">
+        <v>2533</v>
+      </c>
+      <c r="O5" s="166">
+        <v>3044</v>
+      </c>
+      <c r="P5" s="166">
+        <v>11513</v>
+      </c>
+      <c r="Q5" s="166">
+        <v>2332</v>
+      </c>
+      <c r="R5" s="166">
+        <v>10387</v>
+      </c>
+      <c r="S5" s="191">
+        <f t="shared" si="0"/>
+        <v>64819</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="170" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="170" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="166">
+        <v>108</v>
+      </c>
+      <c r="D6" s="166">
+        <v>12440</v>
+      </c>
+      <c r="E6" s="166">
+        <v>1333</v>
+      </c>
+      <c r="F6" s="166">
+        <v>696</v>
+      </c>
+      <c r="G6" s="166">
+        <v>896</v>
+      </c>
+      <c r="H6" s="166">
+        <v>463</v>
+      </c>
+      <c r="I6" s="166">
+        <v>2031</v>
+      </c>
+      <c r="J6" s="166">
+        <v>9656</v>
+      </c>
+      <c r="K6" s="166">
+        <v>0</v>
+      </c>
+      <c r="L6" s="166">
+        <v>1667</v>
+      </c>
+      <c r="M6" s="166">
+        <v>6859</v>
+      </c>
+      <c r="N6" s="166">
+        <v>3062</v>
+      </c>
+      <c r="O6" s="166">
+        <v>3092</v>
+      </c>
+      <c r="P6" s="166">
+        <v>11533</v>
+      </c>
+      <c r="Q6" s="166">
+        <v>2554</v>
+      </c>
+      <c r="R6" s="166">
+        <v>12854</v>
+      </c>
+      <c r="S6" s="191">
+        <f t="shared" si="0"/>
+        <v>69244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="170" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="170" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="166">
+        <v>102</v>
+      </c>
+      <c r="D7" s="166">
+        <v>13228</v>
+      </c>
+      <c r="E7" s="166">
+        <v>1475</v>
+      </c>
+      <c r="F7" s="166">
+        <v>737</v>
+      </c>
+      <c r="G7" s="166">
+        <v>1018</v>
+      </c>
+      <c r="H7" s="166">
+        <v>442</v>
+      </c>
+      <c r="I7" s="166">
+        <v>1906</v>
+      </c>
+      <c r="J7" s="166">
+        <v>8022</v>
+      </c>
+      <c r="K7" s="166">
+        <v>0</v>
+      </c>
+      <c r="L7" s="166">
+        <v>1593</v>
+      </c>
+      <c r="M7" s="166">
+        <v>7056</v>
+      </c>
+      <c r="N7" s="166">
+        <v>3265</v>
+      </c>
+      <c r="O7" s="166">
+        <v>3130</v>
+      </c>
+      <c r="P7" s="166">
+        <v>10137</v>
+      </c>
+      <c r="Q7" s="166">
+        <v>2723</v>
+      </c>
+      <c r="R7" s="166">
+        <v>11065</v>
+      </c>
+      <c r="S7" s="191">
+        <f t="shared" si="0"/>
+        <v>65899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="170" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="170" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="166">
+        <v>115</v>
+      </c>
+      <c r="D8" s="166">
+        <v>13312</v>
+      </c>
+      <c r="E8" s="166">
+        <v>1524</v>
+      </c>
+      <c r="F8" s="166">
+        <v>738</v>
+      </c>
+      <c r="G8" s="166">
+        <v>1190</v>
+      </c>
+      <c r="H8" s="166">
+        <v>376</v>
+      </c>
+      <c r="I8" s="166">
+        <v>1698</v>
+      </c>
+      <c r="J8" s="166">
+        <v>4831</v>
+      </c>
+      <c r="K8" s="166">
+        <v>2259</v>
+      </c>
+      <c r="L8" s="166">
+        <v>1453</v>
+      </c>
+      <c r="M8" s="166">
+        <v>7658</v>
+      </c>
+      <c r="N8" s="166">
+        <v>3735</v>
+      </c>
+      <c r="O8" s="166">
+        <v>2672</v>
+      </c>
+      <c r="P8" s="166">
+        <v>8937</v>
+      </c>
+      <c r="Q8" s="166">
+        <v>3047</v>
+      </c>
+      <c r="R8" s="166">
+        <v>10882</v>
+      </c>
+      <c r="S8" s="191">
+        <f t="shared" si="0"/>
+        <v>64427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="170" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="170" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="166">
+        <v>147</v>
+      </c>
+      <c r="D9" s="166">
+        <v>13751</v>
+      </c>
+      <c r="E9" s="166">
+        <v>1526</v>
+      </c>
+      <c r="F9" s="166">
+        <v>740</v>
+      </c>
+      <c r="G9" s="166">
+        <v>1213</v>
+      </c>
+      <c r="H9" s="166">
+        <v>414</v>
+      </c>
+      <c r="I9" s="166">
+        <v>1754</v>
+      </c>
+      <c r="J9" s="166">
+        <v>4618</v>
+      </c>
+      <c r="K9" s="166">
+        <v>2144</v>
+      </c>
+      <c r="L9" s="166">
+        <v>1518</v>
+      </c>
+      <c r="M9" s="166">
+        <v>6711</v>
+      </c>
+      <c r="N9" s="166">
+        <v>3612</v>
+      </c>
+      <c r="O9" s="166">
+        <v>2835</v>
+      </c>
+      <c r="P9" s="166">
+        <v>7480</v>
+      </c>
+      <c r="Q9" s="166">
+        <v>3251</v>
+      </c>
+      <c r="R9" s="166">
+        <v>9869</v>
+      </c>
+      <c r="S9" s="191">
+        <f t="shared" si="0"/>
+        <v>61583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="170" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="170" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="166">
+        <v>94</v>
+      </c>
+      <c r="D10" s="166">
+        <v>14355</v>
+      </c>
+      <c r="E10" s="166">
+        <v>1686</v>
+      </c>
+      <c r="F10" s="166">
+        <v>896</v>
+      </c>
+      <c r="G10" s="166">
+        <v>1350</v>
+      </c>
+      <c r="H10" s="166">
+        <v>468</v>
+      </c>
+      <c r="I10" s="166">
+        <v>1773</v>
+      </c>
+      <c r="J10" s="166">
+        <v>4655</v>
+      </c>
+      <c r="K10" s="166">
+        <v>1721</v>
+      </c>
+      <c r="L10" s="166">
+        <v>1550</v>
+      </c>
+      <c r="M10" s="166">
+        <v>6842</v>
+      </c>
+      <c r="N10" s="166">
+        <v>3553</v>
+      </c>
+      <c r="O10" s="166">
+        <v>2789</v>
+      </c>
+      <c r="P10" s="166">
+        <v>7044</v>
+      </c>
+      <c r="Q10" s="166">
+        <v>3697</v>
+      </c>
+      <c r="R10" s="166">
+        <v>7094</v>
+      </c>
+      <c r="S10" s="191">
+        <f t="shared" si="0"/>
+        <v>59567</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="170" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="170" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="166">
+        <v>137</v>
+      </c>
+      <c r="D11" s="166">
+        <v>14035</v>
+      </c>
+      <c r="E11" s="166">
+        <v>1596</v>
+      </c>
+      <c r="F11" s="166">
+        <v>796</v>
+      </c>
+      <c r="G11" s="166">
+        <v>1311</v>
+      </c>
+      <c r="H11" s="166">
+        <v>525</v>
+      </c>
+      <c r="I11" s="166">
+        <v>1748</v>
+      </c>
+      <c r="J11" s="166">
+        <v>4568</v>
+      </c>
+      <c r="K11" s="166">
+        <v>1713</v>
+      </c>
+      <c r="L11" s="166">
+        <v>1554</v>
+      </c>
+      <c r="M11" s="166">
+        <v>6649</v>
+      </c>
+      <c r="N11" s="166">
+        <v>4731</v>
+      </c>
+      <c r="O11" s="166">
+        <v>2669</v>
+      </c>
+      <c r="P11" s="167">
+        <v>8957</v>
+      </c>
+      <c r="Q11" s="166">
+        <v>3767</v>
+      </c>
+      <c r="R11" s="167">
+        <v>6562</v>
+      </c>
+      <c r="S11" s="191">
+        <f t="shared" si="0"/>
+        <v>61318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="170" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="170" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="166">
+        <v>123</v>
+      </c>
+      <c r="D12" s="166">
+        <v>13920</v>
+      </c>
+      <c r="E12" s="166">
+        <v>1658</v>
+      </c>
+      <c r="F12" s="166">
+        <v>800</v>
+      </c>
+      <c r="G12" s="166">
+        <v>1394</v>
+      </c>
+      <c r="H12" s="166">
+        <v>564</v>
+      </c>
+      <c r="I12" s="166">
+        <v>1602</v>
+      </c>
+      <c r="J12" s="166">
+        <v>4808</v>
+      </c>
+      <c r="K12" s="166">
+        <v>1482</v>
+      </c>
+      <c r="L12" s="166">
+        <v>1671</v>
+      </c>
+      <c r="M12" s="166">
+        <v>7340</v>
+      </c>
+      <c r="N12" s="166">
+        <v>4819</v>
+      </c>
+      <c r="O12" s="166">
+        <v>2472</v>
+      </c>
+      <c r="P12" s="167">
+        <v>7675</v>
+      </c>
+      <c r="Q12" s="166">
+        <v>3958</v>
+      </c>
+      <c r="R12" s="167">
+        <v>5356</v>
+      </c>
+      <c r="S12" s="191">
+        <f t="shared" si="0"/>
+        <v>59642</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="170" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="170" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="166">
+        <v>126</v>
+      </c>
+      <c r="D13" s="166">
+        <v>13737</v>
+      </c>
+      <c r="E13" s="166">
+        <v>1617</v>
+      </c>
+      <c r="F13" s="166">
+        <v>760</v>
+      </c>
+      <c r="G13" s="166">
+        <v>1462</v>
+      </c>
+      <c r="H13" s="166">
+        <v>683</v>
+      </c>
+      <c r="I13" s="166">
+        <v>1532</v>
+      </c>
+      <c r="J13" s="166">
+        <v>4849</v>
+      </c>
+      <c r="K13" s="166">
+        <v>1010</v>
+      </c>
+      <c r="L13" s="166">
+        <v>1670</v>
+      </c>
+      <c r="M13" s="166">
+        <v>7646</v>
+      </c>
+      <c r="N13" s="166">
+        <v>4789</v>
+      </c>
+      <c r="O13" s="166">
+        <v>2331</v>
+      </c>
+      <c r="P13" s="167">
+        <v>5360</v>
+      </c>
+      <c r="Q13" s="166">
+        <v>4229</v>
+      </c>
+      <c r="R13" s="167">
+        <v>6111</v>
+      </c>
+      <c r="S13" s="191">
+        <f t="shared" si="0"/>
+        <v>57912</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="171" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="170" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="168">
+        <v>131</v>
+      </c>
+      <c r="D14" s="168">
+        <v>13898</v>
+      </c>
+      <c r="E14" s="168">
+        <v>1532</v>
+      </c>
+      <c r="F14" s="168">
+        <v>767</v>
+      </c>
+      <c r="G14" s="168">
+        <v>1598</v>
+      </c>
+      <c r="H14" s="168">
+        <v>379</v>
+      </c>
+      <c r="I14" s="168">
+        <v>1308</v>
+      </c>
+      <c r="J14" s="168">
+        <v>3617</v>
+      </c>
+      <c r="K14" s="168">
+        <v>516</v>
+      </c>
+      <c r="L14" s="168">
+        <v>1485</v>
+      </c>
+      <c r="M14" s="168">
+        <v>6464</v>
+      </c>
+      <c r="N14" s="168">
+        <v>4533</v>
+      </c>
+      <c r="O14" s="168">
+        <v>2279</v>
+      </c>
+      <c r="P14" s="169">
+        <v>3544</v>
+      </c>
+      <c r="Q14" s="168">
+        <v>3914</v>
+      </c>
+      <c r="R14" s="169">
+        <v>14586</v>
+      </c>
+      <c r="S14" s="191">
+        <f t="shared" si="0"/>
+        <v>60551</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="170" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="172">
+        <v>16</v>
+      </c>
+      <c r="D15" s="172">
+        <v>2151</v>
+      </c>
+      <c r="E15" s="172">
+        <v>45</v>
+      </c>
+      <c r="F15" s="172">
+        <v>91</v>
+      </c>
+      <c r="G15" s="172">
+        <v>91</v>
+      </c>
+      <c r="H15" s="172">
+        <v>69</v>
+      </c>
+      <c r="I15" s="172">
+        <v>386</v>
+      </c>
+      <c r="J15" s="172">
+        <v>6303</v>
+      </c>
+      <c r="K15" s="166">
+        <v>0</v>
+      </c>
+      <c r="L15" s="172">
+        <v>756</v>
+      </c>
+      <c r="M15" s="172">
+        <v>1157</v>
+      </c>
+      <c r="N15" s="172">
+        <v>256</v>
+      </c>
+      <c r="O15" s="172">
+        <v>630</v>
+      </c>
+      <c r="P15" s="172">
+        <v>1196</v>
+      </c>
+      <c r="Q15" s="172">
+        <v>396</v>
+      </c>
+      <c r="R15" s="172">
+        <v>858</v>
+      </c>
+      <c r="S15" s="191">
+        <f t="shared" si="0"/>
+        <v>14401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="170" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="172">
+        <v>28</v>
+      </c>
+      <c r="D16" s="172">
+        <v>2268</v>
+      </c>
+      <c r="E16" s="172">
+        <v>37</v>
+      </c>
+      <c r="F16" s="172">
+        <v>100</v>
+      </c>
+      <c r="G16" s="172">
+        <v>130</v>
+      </c>
+      <c r="H16" s="172">
+        <v>54</v>
+      </c>
+      <c r="I16" s="172">
+        <v>424</v>
+      </c>
+      <c r="J16" s="172">
+        <v>6758</v>
+      </c>
+      <c r="K16" s="166">
+        <v>0</v>
+      </c>
+      <c r="L16" s="172">
+        <v>698</v>
+      </c>
+      <c r="M16" s="172">
+        <v>1091</v>
+      </c>
+      <c r="N16" s="172">
+        <v>239</v>
+      </c>
+      <c r="O16" s="172">
+        <v>643</v>
+      </c>
+      <c r="P16" s="172">
+        <v>1884</v>
+      </c>
+      <c r="Q16" s="172">
+        <v>477</v>
+      </c>
+      <c r="R16" s="172">
+        <v>1134</v>
+      </c>
+      <c r="S16" s="191">
+        <f t="shared" si="0"/>
+        <v>15965</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="170" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="172">
+        <v>6</v>
+      </c>
+      <c r="D17" s="172">
+        <v>2372</v>
+      </c>
+      <c r="E17" s="172">
+        <v>28</v>
+      </c>
+      <c r="F17" s="172">
+        <v>107</v>
+      </c>
+      <c r="G17" s="172">
+        <v>106</v>
+      </c>
+      <c r="H17" s="172">
+        <v>71</v>
+      </c>
+      <c r="I17" s="172">
+        <v>404</v>
+      </c>
+      <c r="J17" s="172">
+        <v>6312</v>
+      </c>
+      <c r="K17" s="166">
+        <v>0</v>
+      </c>
+      <c r="L17" s="172">
+        <v>600</v>
+      </c>
+      <c r="M17" s="172">
+        <v>1156</v>
+      </c>
+      <c r="N17" s="172">
+        <v>305</v>
+      </c>
+      <c r="O17" s="172">
+        <v>610</v>
+      </c>
+      <c r="P17" s="172">
+        <v>2027</v>
+      </c>
+      <c r="Q17" s="172">
+        <v>460</v>
+      </c>
+      <c r="R17" s="172">
+        <v>1600</v>
+      </c>
+      <c r="S17" s="191">
+        <f t="shared" si="0"/>
+        <v>16164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="170" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="170" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="172">
+        <v>20</v>
+      </c>
+      <c r="D18" s="172">
+        <v>2496</v>
+      </c>
+      <c r="E18" s="172">
+        <v>47</v>
+      </c>
+      <c r="F18" s="172">
+        <v>120</v>
+      </c>
+      <c r="G18" s="172">
+        <v>133</v>
+      </c>
+      <c r="H18" s="172">
+        <v>60</v>
+      </c>
+      <c r="I18" s="172">
+        <v>373</v>
+      </c>
+      <c r="J18" s="172">
+        <v>6211</v>
+      </c>
+      <c r="K18" s="166">
+        <v>0</v>
+      </c>
+      <c r="L18" s="172">
+        <v>628</v>
+      </c>
+      <c r="M18" s="172">
+        <v>1300</v>
+      </c>
+      <c r="N18" s="172">
+        <v>330</v>
+      </c>
+      <c r="O18" s="172">
+        <v>601</v>
+      </c>
+      <c r="P18" s="172">
+        <v>1762</v>
+      </c>
+      <c r="Q18" s="172">
+        <v>545</v>
+      </c>
+      <c r="R18" s="172">
+        <v>2005</v>
+      </c>
+      <c r="S18" s="191">
+        <f t="shared" si="0"/>
+        <v>16631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="170" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="170" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="172">
+        <v>14</v>
+      </c>
+      <c r="D19" s="172">
+        <v>2845</v>
+      </c>
+      <c r="E19" s="172">
+        <v>58</v>
+      </c>
+      <c r="F19" s="172">
+        <v>110</v>
+      </c>
+      <c r="G19" s="172">
+        <v>160</v>
+      </c>
+      <c r="H19" s="172">
+        <v>87</v>
+      </c>
+      <c r="I19" s="172">
+        <v>352</v>
+      </c>
+      <c r="J19" s="172">
+        <v>5952</v>
+      </c>
+      <c r="K19" s="166">
+        <v>0</v>
+      </c>
+      <c r="L19" s="172">
+        <v>792</v>
+      </c>
+      <c r="M19" s="172">
+        <v>1465</v>
+      </c>
+      <c r="N19" s="172">
+        <v>411</v>
+      </c>
+      <c r="O19" s="172">
+        <v>633</v>
+      </c>
+      <c r="P19" s="172">
+        <v>1892</v>
+      </c>
+      <c r="Q19" s="172">
+        <v>617</v>
+      </c>
+      <c r="R19" s="172">
+        <v>2726</v>
+      </c>
+      <c r="S19" s="191">
+        <f t="shared" si="0"/>
+        <v>18114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="170" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="170" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="172">
+        <v>19</v>
+      </c>
+      <c r="D20" s="172">
+        <v>2969</v>
+      </c>
+      <c r="E20" s="172">
+        <v>73</v>
+      </c>
+      <c r="F20" s="172">
+        <v>118</v>
+      </c>
+      <c r="G20" s="172">
+        <v>192</v>
+      </c>
+      <c r="H20" s="172">
+        <v>81</v>
+      </c>
+      <c r="I20" s="172">
+        <v>370</v>
+      </c>
+      <c r="J20" s="172">
+        <v>5063</v>
+      </c>
+      <c r="K20" s="166">
+        <v>0</v>
+      </c>
+      <c r="L20" s="172">
+        <v>783</v>
+      </c>
+      <c r="M20" s="172">
+        <v>1607</v>
+      </c>
+      <c r="N20" s="172">
+        <v>479</v>
+      </c>
+      <c r="O20" s="172">
+        <v>629</v>
+      </c>
+      <c r="P20" s="172">
+        <v>1668</v>
+      </c>
+      <c r="Q20" s="172">
+        <v>648</v>
+      </c>
+      <c r="R20" s="172">
+        <v>2150</v>
+      </c>
+      <c r="S20" s="191">
+        <f t="shared" si="0"/>
+        <v>16849</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="170" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="170" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" s="172">
+        <v>13</v>
+      </c>
+      <c r="D21" s="172">
+        <v>3108</v>
+      </c>
+      <c r="E21" s="172">
+        <v>50</v>
+      </c>
+      <c r="F21" s="172">
+        <v>145</v>
+      </c>
+      <c r="G21" s="172">
+        <v>235</v>
+      </c>
+      <c r="H21" s="172">
+        <v>57</v>
+      </c>
+      <c r="I21" s="172">
+        <v>350</v>
+      </c>
+      <c r="J21" s="172">
+        <v>3518</v>
+      </c>
+      <c r="K21" s="172">
+        <v>442</v>
+      </c>
+      <c r="L21" s="172">
+        <v>783</v>
+      </c>
+      <c r="M21" s="172">
+        <v>2018</v>
+      </c>
+      <c r="N21" s="172">
+        <v>571</v>
+      </c>
+      <c r="O21" s="172">
+        <v>598</v>
+      </c>
+      <c r="P21" s="172">
+        <v>1503</v>
+      </c>
+      <c r="Q21" s="172">
+        <v>764</v>
+      </c>
+      <c r="R21" s="172">
+        <v>2005</v>
+      </c>
+      <c r="S21" s="191">
+        <f t="shared" si="0"/>
+        <v>16160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="170" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="170" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="172">
+        <v>26</v>
+      </c>
+      <c r="D22" s="172">
+        <v>3269</v>
+      </c>
+      <c r="E22" s="172">
+        <v>64</v>
+      </c>
+      <c r="F22" s="172">
+        <v>127</v>
+      </c>
+      <c r="G22" s="172">
+        <v>268</v>
+      </c>
+      <c r="H22" s="172">
+        <v>55</v>
+      </c>
+      <c r="I22" s="172">
+        <v>369</v>
+      </c>
+      <c r="J22" s="172">
+        <v>3581</v>
+      </c>
+      <c r="K22" s="172">
+        <v>345</v>
+      </c>
+      <c r="L22" s="172">
+        <v>789</v>
+      </c>
+      <c r="M22" s="172">
+        <v>1950</v>
+      </c>
+      <c r="N22" s="172">
+        <v>676</v>
+      </c>
+      <c r="O22" s="172">
+        <v>610</v>
+      </c>
+      <c r="P22" s="172">
+        <v>1216</v>
+      </c>
+      <c r="Q22" s="172">
+        <v>786</v>
+      </c>
+      <c r="R22" s="172">
+        <v>1800</v>
+      </c>
+      <c r="S22" s="191">
+        <f t="shared" si="0"/>
+        <v>15931</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="170" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="170" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="172">
+        <v>27</v>
+      </c>
+      <c r="D23" s="172">
+        <v>3343</v>
+      </c>
+      <c r="E23" s="172">
+        <v>81</v>
+      </c>
+      <c r="F23" s="172">
+        <v>157</v>
+      </c>
+      <c r="G23" s="172">
+        <v>259</v>
+      </c>
+      <c r="H23" s="172">
+        <v>62</v>
+      </c>
+      <c r="I23" s="172">
+        <v>375</v>
+      </c>
+      <c r="J23" s="172">
+        <v>3713</v>
+      </c>
+      <c r="K23" s="172">
+        <v>297</v>
+      </c>
+      <c r="L23" s="172">
+        <v>840</v>
+      </c>
+      <c r="M23" s="172">
+        <v>1939</v>
+      </c>
+      <c r="N23" s="172">
+        <v>687</v>
+      </c>
+      <c r="O23" s="172">
+        <v>620</v>
+      </c>
+      <c r="P23" s="172">
+        <v>1278</v>
+      </c>
+      <c r="Q23" s="172">
+        <v>866</v>
+      </c>
+      <c r="R23" s="172">
+        <v>1305</v>
+      </c>
+      <c r="S23" s="191">
+        <f t="shared" si="0"/>
+        <v>15849</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="170" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="170" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="172">
+        <v>18</v>
+      </c>
+      <c r="D24" s="172">
+        <v>3378</v>
+      </c>
+      <c r="E24" s="172">
+        <v>81</v>
+      </c>
+      <c r="F24" s="172">
+        <v>162</v>
+      </c>
+      <c r="G24" s="172">
+        <v>264</v>
+      </c>
+      <c r="H24" s="172">
+        <v>87</v>
+      </c>
+      <c r="I24" s="172">
+        <v>359</v>
+      </c>
+      <c r="J24" s="172">
+        <v>3437</v>
+      </c>
+      <c r="K24" s="172">
+        <v>294</v>
+      </c>
+      <c r="L24" s="172">
+        <v>856</v>
+      </c>
+      <c r="M24" s="172">
+        <v>1931</v>
+      </c>
+      <c r="N24" s="172">
+        <v>886</v>
+      </c>
+      <c r="O24" s="172">
+        <v>609</v>
+      </c>
+      <c r="P24" s="167">
+        <v>1562</v>
+      </c>
+      <c r="Q24" s="172">
+        <v>980</v>
+      </c>
+      <c r="R24" s="167">
+        <v>1039</v>
+      </c>
+      <c r="S24" s="191">
+        <f t="shared" si="0"/>
+        <v>15943</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="170" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="170" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="172">
+        <v>17</v>
+      </c>
+      <c r="D25" s="172">
+        <v>3500</v>
+      </c>
+      <c r="E25" s="172">
+        <v>83</v>
+      </c>
+      <c r="F25" s="172">
+        <v>149</v>
+      </c>
+      <c r="G25" s="172">
+        <v>322</v>
+      </c>
+      <c r="H25" s="172">
+        <v>107</v>
+      </c>
+      <c r="I25" s="172">
+        <v>374</v>
+      </c>
+      <c r="J25" s="172">
+        <v>3814</v>
+      </c>
+      <c r="K25" s="172">
+        <v>307</v>
+      </c>
+      <c r="L25" s="172">
+        <v>870</v>
+      </c>
+      <c r="M25" s="172">
+        <v>2045</v>
+      </c>
+      <c r="N25" s="172">
+        <v>938</v>
+      </c>
+      <c r="O25" s="172">
+        <v>559</v>
+      </c>
+      <c r="P25" s="167">
+        <v>1375</v>
+      </c>
+      <c r="Q25" s="172">
+        <v>1083</v>
+      </c>
+      <c r="R25" s="167">
+        <v>814</v>
+      </c>
+      <c r="S25" s="191">
+        <f t="shared" si="0"/>
+        <v>16357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="170" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="170" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" s="166">
+        <v>20</v>
+      </c>
+      <c r="D26" s="166">
+        <v>3431</v>
+      </c>
+      <c r="E26" s="166">
+        <v>73</v>
+      </c>
+      <c r="F26" s="166">
+        <v>151</v>
+      </c>
+      <c r="G26" s="166">
+        <v>307</v>
+      </c>
+      <c r="H26" s="166">
+        <v>120</v>
+      </c>
+      <c r="I26" s="166">
+        <v>344</v>
+      </c>
+      <c r="J26" s="166">
+        <v>3476</v>
+      </c>
+      <c r="K26" s="166">
+        <v>261</v>
+      </c>
+      <c r="L26" s="166">
+        <v>876</v>
+      </c>
+      <c r="M26" s="166">
+        <v>2258</v>
+      </c>
+      <c r="N26" s="166">
+        <v>912</v>
+      </c>
+      <c r="O26" s="166">
+        <v>535</v>
+      </c>
+      <c r="P26" s="167">
+        <v>889</v>
+      </c>
+      <c r="Q26" s="166">
+        <v>1097</v>
+      </c>
+      <c r="R26" s="167">
+        <v>1523</v>
+      </c>
+      <c r="S26" s="191">
+        <f t="shared" si="0"/>
+        <v>16273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="171" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" s="170" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="168">
+        <v>31</v>
+      </c>
+      <c r="D27" s="168">
+        <v>3447</v>
+      </c>
+      <c r="E27" s="168">
+        <v>85</v>
+      </c>
+      <c r="F27" s="168">
+        <v>123</v>
+      </c>
+      <c r="G27" s="168">
+        <v>328</v>
+      </c>
+      <c r="H27" s="168">
+        <v>106</v>
+      </c>
+      <c r="I27" s="168">
+        <v>291</v>
+      </c>
+      <c r="J27" s="168">
+        <v>2453</v>
+      </c>
+      <c r="K27" s="168">
+        <v>111</v>
+      </c>
+      <c r="L27" s="168">
+        <v>727</v>
+      </c>
+      <c r="M27" s="168">
+        <v>2129</v>
+      </c>
+      <c r="N27" s="168">
+        <v>792</v>
+      </c>
+      <c r="O27" s="168">
+        <v>577</v>
+      </c>
+      <c r="P27" s="169">
+        <v>657</v>
+      </c>
+      <c r="Q27" s="168">
+        <v>1032</v>
+      </c>
+      <c r="R27" s="169">
+        <v>5104</v>
+      </c>
+      <c r="S27" s="191">
+        <f t="shared" si="0"/>
+        <v>17993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="170" t="s">
         <v>234</v>
       </c>
-      <c r="M1" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q1" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="R1" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="S1" s="34" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" s="117">
+      <c r="C28" s="166">
+        <v>160</v>
+      </c>
+      <c r="D28" s="166">
+        <v>12107</v>
+      </c>
+      <c r="E28" s="166">
+        <v>1290</v>
+      </c>
+      <c r="F28" s="166">
+        <v>667</v>
+      </c>
+      <c r="G28" s="166">
+        <v>632</v>
+      </c>
+      <c r="H28" s="166">
+        <v>468</v>
+      </c>
+      <c r="I28" s="166">
+        <v>3147</v>
+      </c>
+      <c r="J28" s="166">
+        <v>15494</v>
+      </c>
+      <c r="K28" s="166">
+        <v>0</v>
+      </c>
+      <c r="L28" s="166">
+        <v>2251</v>
+      </c>
+      <c r="M28" s="166">
+        <v>6639</v>
+      </c>
+      <c r="N28" s="166">
+        <v>2616</v>
+      </c>
+      <c r="O28" s="166">
+        <v>3936</v>
+      </c>
+      <c r="P28" s="166">
+        <v>7797</v>
+      </c>
+      <c r="Q28" s="166">
+        <v>1758</v>
+      </c>
+      <c r="R28" s="166">
+        <v>8488</v>
+      </c>
+      <c r="S28" s="191">
+        <f t="shared" si="0"/>
+        <v>67450</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="170" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" s="166">
         <v>146</v>
       </c>
-      <c r="D2" s="117">
-        <v>9953</v>
-      </c>
-      <c r="E2" s="117">
-        <v>1243</v>
-      </c>
-      <c r="F2" s="117">
-        <v>578</v>
-      </c>
-      <c r="G2" s="117">
-        <v>534</v>
-      </c>
-      <c r="H2" s="117">
-        <v>399</v>
-      </c>
-      <c r="I2" s="117">
-        <v>2759</v>
-      </c>
-      <c r="J2" s="117">
-        <v>9172</v>
-      </c>
-      <c r="K2" s="117">
+      <c r="D29" s="166">
+        <v>12406</v>
+      </c>
+      <c r="E29" s="166">
+        <v>1330</v>
+      </c>
+      <c r="F29" s="166">
+        <v>732</v>
+      </c>
+      <c r="G29" s="166">
+        <v>755</v>
+      </c>
+      <c r="H29" s="166">
+        <v>481</v>
+      </c>
+      <c r="I29" s="166">
+        <v>2970</v>
+      </c>
+      <c r="J29" s="166">
+        <v>16430</v>
+      </c>
+      <c r="K29" s="166">
         <v>0</v>
       </c>
-      <c r="L2" s="117">
-        <v>1499</v>
-      </c>
-      <c r="M2" s="117">
-        <v>5471</v>
-      </c>
-      <c r="N2" s="117">
-        <v>2360</v>
-      </c>
-      <c r="O2" s="117">
-        <v>3295</v>
-      </c>
-      <c r="P2" s="117">
+      <c r="L29" s="166">
+        <v>2188</v>
+      </c>
+      <c r="M29" s="166">
+        <v>6734</v>
+      </c>
+      <c r="N29" s="166">
+        <v>2482</v>
+      </c>
+      <c r="O29" s="166">
+        <v>3957</v>
+      </c>
+      <c r="P29" s="166">
+        <v>14149</v>
+      </c>
+      <c r="Q29" s="166">
+        <v>2158</v>
+      </c>
+      <c r="R29" s="166">
+        <v>9497</v>
+      </c>
+      <c r="S29" s="191">
+        <f t="shared" si="0"/>
+        <v>76415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="170" t="s">
+        <v>234</v>
+      </c>
+      <c r="C30" s="166">
+        <v>102</v>
+      </c>
+      <c r="D30" s="166">
+        <v>12311</v>
+      </c>
+      <c r="E30" s="166">
+        <v>1193</v>
+      </c>
+      <c r="F30" s="166">
+        <v>763</v>
+      </c>
+      <c r="G30" s="166">
+        <v>726</v>
+      </c>
+      <c r="H30" s="166">
+        <v>522</v>
+      </c>
+      <c r="I30" s="166">
+        <v>2841</v>
+      </c>
+      <c r="J30" s="166">
+        <v>16467</v>
+      </c>
+      <c r="K30" s="166">
+        <v>0</v>
+      </c>
+      <c r="L30" s="166">
+        <v>1907</v>
+      </c>
+      <c r="M30" s="166">
         <v>6583</v>
       </c>
-      <c r="Q2" s="117">
-        <v>1360</v>
-      </c>
-      <c r="R2" s="117">
-        <v>7618</v>
-      </c>
-      <c r="S2">
-        <f>IF($C$15&lt;0.01, C2, 0)+IF($C$15&lt;0.01, C2, 0)+IF($C$15&lt;0.01, C2, 0)+IF($C$15&lt;0.01, C2, 0)+IF($C$15&lt;0.01, C2, 0)+IF($C$15&lt;0.01, C2, 0)+IF($C$15&lt;0.01, C2, 0)+IF($K$15&lt;0.01, K2, 0)+IF($L$15&lt;0.01, L2, 0)+IF($M$15&lt;0.01, M2, 0)+IF($N$15&lt;0.01, N2, 0)+IF($O$15&lt;0.01, O2, 0)+IF($P$15&lt;0.01, P2, 0)+IF($Q$15&lt;0.01, P2, 0)+IF($Q$15&lt;0.01, Q2, 0)+IF($R$15&lt;0.01, R2, 0)</f>
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" s="117">
+      <c r="N30" s="166">
+        <v>2491</v>
+      </c>
+      <c r="O30" s="166">
+        <v>3786</v>
+      </c>
+      <c r="P30" s="166">
+        <v>15173</v>
+      </c>
+      <c r="Q30" s="166">
+        <v>2285</v>
+      </c>
+      <c r="R30" s="166">
+        <v>10994</v>
+      </c>
+      <c r="S30" s="191">
+        <f t="shared" si="0"/>
+        <v>78144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="170" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="170" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="166">
+        <v>118</v>
+      </c>
+      <c r="D31" s="166">
+        <v>13107</v>
+      </c>
+      <c r="E31" s="166">
+        <v>1387</v>
+      </c>
+      <c r="F31" s="166">
+        <v>821</v>
+      </c>
+      <c r="G31" s="166">
+        <v>872</v>
+      </c>
+      <c r="H31" s="166">
+        <v>547</v>
+      </c>
+      <c r="I31" s="166">
+        <v>2620</v>
+      </c>
+      <c r="J31" s="166">
+        <v>17457</v>
+      </c>
+      <c r="K31" s="166">
+        <v>0</v>
+      </c>
+      <c r="L31" s="166">
+        <v>2029</v>
+      </c>
+      <c r="M31" s="166">
+        <v>7604</v>
+      </c>
+      <c r="N31" s="166">
+        <v>2873</v>
+      </c>
+      <c r="O31" s="166">
+        <v>3657</v>
+      </c>
+      <c r="P31" s="166">
+        <v>13314</v>
+      </c>
+      <c r="Q31" s="166">
+        <v>2886</v>
+      </c>
+      <c r="R31" s="166">
+        <v>12442</v>
+      </c>
+      <c r="S31" s="191">
+        <f t="shared" si="0"/>
+        <v>81734</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="170" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="170" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" s="166">
+        <v>128</v>
+      </c>
+      <c r="D32" s="166">
+        <v>15319</v>
+      </c>
+      <c r="E32" s="166">
+        <v>1395</v>
+      </c>
+      <c r="F32" s="166">
+        <v>813</v>
+      </c>
+      <c r="G32" s="166">
+        <v>1056</v>
+      </c>
+      <c r="H32" s="166">
+        <v>547</v>
+      </c>
+      <c r="I32" s="166">
+        <v>2385</v>
+      </c>
+      <c r="J32" s="166">
+        <v>15667</v>
+      </c>
+      <c r="K32" s="166">
+        <v>0</v>
+      </c>
+      <c r="L32" s="166">
+        <v>2465</v>
+      </c>
+      <c r="M32" s="166">
+        <v>8344</v>
+      </c>
+      <c r="N32" s="166">
+        <v>3474</v>
+      </c>
+      <c r="O32" s="166">
+        <v>3737</v>
+      </c>
+      <c r="P32" s="166">
+        <v>13480</v>
+      </c>
+      <c r="Q32" s="166">
+        <v>3187</v>
+      </c>
+      <c r="R32" s="166">
+        <v>15691</v>
+      </c>
+      <c r="S32" s="191">
+        <f t="shared" si="0"/>
+        <v>87688</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="170" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="170" t="s">
+        <v>234</v>
+      </c>
+      <c r="C33" s="166">
+        <v>120</v>
+      </c>
+      <c r="D33" s="166">
+        <v>16238</v>
+      </c>
+      <c r="E33" s="166">
+        <v>1566</v>
+      </c>
+      <c r="F33" s="166">
+        <v>855</v>
+      </c>
+      <c r="G33" s="166">
+        <v>1213</v>
+      </c>
+      <c r="H33" s="166">
+        <v>520</v>
+      </c>
+      <c r="I33" s="166">
+        <v>2275</v>
+      </c>
+      <c r="J33" s="166">
+        <v>13135</v>
+      </c>
+      <c r="K33" s="166">
+        <v>0</v>
+      </c>
+      <c r="L33" s="166">
+        <v>2382</v>
+      </c>
+      <c r="M33" s="166">
+        <v>8676</v>
+      </c>
+      <c r="N33" s="166">
+        <v>3748</v>
+      </c>
+      <c r="O33" s="166">
+        <v>3768</v>
+      </c>
+      <c r="P33" s="166">
+        <v>11850</v>
+      </c>
+      <c r="Q33" s="166">
+        <v>3385</v>
+      </c>
+      <c r="R33" s="166">
+        <v>13372</v>
+      </c>
+      <c r="S33" s="191">
+        <f t="shared" si="0"/>
+        <v>83103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="170" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="170" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="166">
+        <v>132</v>
+      </c>
+      <c r="D34" s="166">
+        <v>16440</v>
+      </c>
+      <c r="E34" s="166">
+        <v>1573</v>
+      </c>
+      <c r="F34" s="166">
+        <v>886</v>
+      </c>
+      <c r="G34" s="166">
+        <v>1421</v>
+      </c>
+      <c r="H34" s="166">
+        <v>436</v>
+      </c>
+      <c r="I34" s="166">
+        <v>2051</v>
+      </c>
+      <c r="J34" s="166">
+        <v>8382</v>
+      </c>
+      <c r="K34" s="166">
+        <v>2701</v>
+      </c>
+      <c r="L34" s="166">
+        <v>2239</v>
+      </c>
+      <c r="M34" s="166">
+        <v>9706</v>
+      </c>
+      <c r="N34" s="166">
+        <v>4307</v>
+      </c>
+      <c r="O34" s="166">
+        <v>3279</v>
+      </c>
+      <c r="P34" s="166">
+        <v>10487</v>
+      </c>
+      <c r="Q34" s="166">
+        <v>3821</v>
+      </c>
+      <c r="R34" s="166">
+        <v>13067</v>
+      </c>
+      <c r="S34" s="191">
+        <f t="shared" si="0"/>
+        <v>80928</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="170" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="170" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" s="166">
+        <v>169</v>
+      </c>
+      <c r="D35" s="166">
+        <v>17063</v>
+      </c>
+      <c r="E35" s="166">
+        <v>1600</v>
+      </c>
+      <c r="F35" s="166">
+        <v>866</v>
+      </c>
+      <c r="G35" s="166">
+        <v>1485</v>
+      </c>
+      <c r="H35" s="166">
+        <v>471</v>
+      </c>
+      <c r="I35" s="166">
+        <v>2122</v>
+      </c>
+      <c r="J35" s="166">
+        <v>8222</v>
+      </c>
+      <c r="K35" s="166">
+        <v>2493</v>
+      </c>
+      <c r="L35" s="166">
+        <v>2309</v>
+      </c>
+      <c r="M35" s="166">
+        <v>8676</v>
+      </c>
+      <c r="N35" s="166">
+        <v>4287</v>
+      </c>
+      <c r="O35" s="166">
+        <v>3454</v>
+      </c>
+      <c r="P35" s="166">
+        <v>8726</v>
+      </c>
+      <c r="Q35" s="166">
+        <v>4046</v>
+      </c>
+      <c r="R35" s="166">
+        <v>11769</v>
+      </c>
+      <c r="S35" s="191">
+        <f t="shared" si="0"/>
+        <v>77758</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" s="170" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="170" t="s">
+        <v>234</v>
+      </c>
+      <c r="C36" s="166">
         <v>117</v>
       </c>
-      <c r="D3" s="117">
-        <v>10122</v>
-      </c>
-      <c r="E3" s="117">
-        <v>1291</v>
-      </c>
-      <c r="F3" s="117">
-        <v>629</v>
-      </c>
-      <c r="G3" s="117">
-        <v>626</v>
-      </c>
-      <c r="H3" s="117">
-        <v>421</v>
-      </c>
-      <c r="I3" s="117">
-        <v>2544</v>
-      </c>
-      <c r="J3" s="117">
-        <v>9622</v>
-      </c>
-      <c r="K3" s="117">
-        <v>0</v>
-      </c>
-      <c r="L3" s="117">
-        <v>1487</v>
-      </c>
-      <c r="M3" s="117">
-        <v>5623</v>
-      </c>
-      <c r="N3" s="117">
-        <v>2241</v>
-      </c>
-      <c r="O3" s="117">
-        <v>3299</v>
-      </c>
-      <c r="P3" s="117">
-        <v>12198</v>
-      </c>
-      <c r="Q3" s="117">
-        <v>1671</v>
-      </c>
-      <c r="R3" s="117">
-        <v>8351</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="117">
-        <v>89</v>
-      </c>
-      <c r="D4" s="117">
-        <v>9915</v>
-      </c>
-      <c r="E4" s="117">
-        <v>1159</v>
-      </c>
-      <c r="F4" s="117">
-        <v>653</v>
-      </c>
-      <c r="G4" s="117">
-        <v>619</v>
-      </c>
-      <c r="H4" s="117">
-        <v>453</v>
-      </c>
-      <c r="I4" s="117">
-        <v>2428</v>
-      </c>
-      <c r="J4" s="117">
-        <v>10087</v>
-      </c>
-      <c r="K4" s="117">
-        <v>0</v>
-      </c>
-      <c r="L4" s="117">
-        <v>1302</v>
-      </c>
-      <c r="M4" s="117">
-        <v>5409</v>
-      </c>
-      <c r="N4" s="117">
-        <v>2178</v>
-      </c>
-      <c r="O4" s="117">
-        <v>3166</v>
-      </c>
-      <c r="P4" s="117">
-        <v>13069</v>
-      </c>
-      <c r="Q4" s="117">
-        <v>1815</v>
-      </c>
-      <c r="R4" s="117">
-        <v>9375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="C5" s="117">
-        <v>98</v>
-      </c>
-      <c r="D5" s="117">
-        <v>10558</v>
-      </c>
-      <c r="E5" s="117">
-        <v>1326</v>
-      </c>
-      <c r="F5" s="117">
-        <v>699</v>
-      </c>
-      <c r="G5" s="117">
-        <v>735</v>
-      </c>
-      <c r="H5" s="117">
-        <v>486</v>
-      </c>
-      <c r="I5" s="117">
-        <v>2246</v>
-      </c>
-      <c r="J5" s="117">
-        <v>11178</v>
-      </c>
-      <c r="K5" s="117">
-        <v>0</v>
-      </c>
-      <c r="L5" s="117">
-        <v>1401</v>
-      </c>
-      <c r="M5" s="117">
-        <v>6283</v>
-      </c>
-      <c r="N5" s="117">
-        <v>2533</v>
-      </c>
-      <c r="O5" s="117">
-        <v>3044</v>
-      </c>
-      <c r="P5" s="117">
-        <v>11513</v>
-      </c>
-      <c r="Q5" s="117">
-        <v>2332</v>
-      </c>
-      <c r="R5" s="117">
-        <v>10387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="C6" s="117">
-        <v>108</v>
-      </c>
-      <c r="D6" s="117">
-        <v>12440</v>
-      </c>
-      <c r="E6" s="117">
-        <v>1333</v>
-      </c>
-      <c r="F6" s="117">
-        <v>696</v>
-      </c>
-      <c r="G6" s="117">
-        <v>896</v>
-      </c>
-      <c r="H6" s="117">
-        <v>463</v>
-      </c>
-      <c r="I6" s="117">
-        <v>2031</v>
-      </c>
-      <c r="J6" s="117">
-        <v>9656</v>
-      </c>
-      <c r="K6" s="117">
-        <v>0</v>
-      </c>
-      <c r="L6" s="117">
-        <v>1667</v>
-      </c>
-      <c r="M6" s="117">
-        <v>6859</v>
-      </c>
-      <c r="N6" s="117">
-        <v>3062</v>
-      </c>
-      <c r="O6" s="117">
-        <v>3092</v>
-      </c>
-      <c r="P6" s="117">
-        <v>11533</v>
-      </c>
-      <c r="Q6" s="117">
-        <v>2554</v>
-      </c>
-      <c r="R6" s="117">
-        <v>12854</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="C7" s="117">
-        <v>102</v>
-      </c>
-      <c r="D7" s="117">
-        <v>13228</v>
-      </c>
-      <c r="E7" s="117">
-        <v>1475</v>
-      </c>
-      <c r="F7" s="117">
-        <v>737</v>
-      </c>
-      <c r="G7" s="117">
-        <v>1018</v>
-      </c>
-      <c r="H7" s="117">
-        <v>442</v>
-      </c>
-      <c r="I7" s="117">
-        <v>1906</v>
-      </c>
-      <c r="J7" s="117">
-        <v>8022</v>
-      </c>
-      <c r="K7" s="117">
-        <v>0</v>
-      </c>
-      <c r="L7" s="117">
-        <v>1593</v>
-      </c>
-      <c r="M7" s="117">
-        <v>7056</v>
-      </c>
-      <c r="N7" s="117">
-        <v>3265</v>
-      </c>
-      <c r="O7" s="117">
-        <v>3130</v>
-      </c>
-      <c r="P7" s="117">
-        <v>10137</v>
-      </c>
-      <c r="Q7" s="117">
-        <v>2723</v>
-      </c>
-      <c r="R7" s="117">
-        <v>11065</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="72" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="C8" s="117">
-        <v>115</v>
-      </c>
-      <c r="D8" s="117">
-        <v>13312</v>
-      </c>
-      <c r="E8" s="117">
-        <v>1524</v>
-      </c>
-      <c r="F8" s="117">
-        <v>738</v>
-      </c>
-      <c r="G8" s="117">
-        <v>1190</v>
-      </c>
-      <c r="H8" s="117">
-        <v>376</v>
-      </c>
-      <c r="I8" s="117">
-        <v>1698</v>
-      </c>
-      <c r="J8" s="117">
-        <v>4831</v>
-      </c>
-      <c r="K8" s="117">
-        <v>2259</v>
-      </c>
-      <c r="L8" s="117">
-        <v>1453</v>
-      </c>
-      <c r="M8" s="117">
-        <v>7658</v>
-      </c>
-      <c r="N8" s="117">
-        <v>3735</v>
-      </c>
-      <c r="O8" s="117">
-        <v>2672</v>
-      </c>
-      <c r="P8" s="117">
-        <v>8937</v>
-      </c>
-      <c r="Q8" s="117">
-        <v>3047</v>
-      </c>
-      <c r="R8" s="117">
-        <v>10882</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" s="117">
-        <v>147</v>
-      </c>
-      <c r="D9" s="117">
-        <v>13751</v>
-      </c>
-      <c r="E9" s="117">
-        <v>1526</v>
-      </c>
-      <c r="F9" s="117">
-        <v>740</v>
-      </c>
-      <c r="G9" s="117">
-        <v>1213</v>
-      </c>
-      <c r="H9" s="117">
-        <v>414</v>
-      </c>
-      <c r="I9" s="117">
-        <v>1754</v>
-      </c>
-      <c r="J9" s="117">
-        <v>4618</v>
-      </c>
-      <c r="K9" s="117">
-        <v>2144</v>
-      </c>
-      <c r="L9" s="117">
-        <v>1518</v>
-      </c>
-      <c r="M9" s="117">
-        <v>6711</v>
-      </c>
-      <c r="N9" s="117">
-        <v>3612</v>
-      </c>
-      <c r="O9" s="117">
-        <v>2835</v>
-      </c>
-      <c r="P9" s="117">
-        <v>7480</v>
-      </c>
-      <c r="Q9" s="117">
-        <v>3251</v>
-      </c>
-      <c r="R9" s="117">
-        <v>9869</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="C10" s="117">
-        <v>94</v>
-      </c>
-      <c r="D10" s="117">
-        <v>14355</v>
-      </c>
-      <c r="E10" s="117">
-        <v>1686</v>
-      </c>
-      <c r="F10" s="117">
-        <v>896</v>
-      </c>
-      <c r="G10" s="117">
-        <v>1350</v>
-      </c>
-      <c r="H10" s="117">
-        <v>468</v>
-      </c>
-      <c r="I10" s="117">
-        <v>1773</v>
-      </c>
-      <c r="J10" s="117">
-        <v>4655</v>
-      </c>
-      <c r="K10" s="117">
-        <v>1721</v>
-      </c>
-      <c r="L10" s="117">
-        <v>1550</v>
-      </c>
-      <c r="M10" s="117">
-        <v>6842</v>
-      </c>
-      <c r="N10" s="117">
-        <v>3553</v>
-      </c>
-      <c r="O10" s="117">
-        <v>2789</v>
-      </c>
-      <c r="P10" s="117">
-        <v>7044</v>
-      </c>
-      <c r="Q10" s="117">
-        <v>3697</v>
-      </c>
-      <c r="R10" s="117">
-        <v>7094</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="72" t="s">
+      <c r="D36" s="166">
+        <v>17725</v>
+      </c>
+      <c r="E36" s="166">
+        <v>1779</v>
+      </c>
+      <c r="F36" s="166">
+        <v>1053</v>
+      </c>
+      <c r="G36" s="166">
+        <v>1615</v>
+      </c>
+      <c r="H36" s="166">
+        <v>522</v>
+      </c>
+      <c r="I36" s="166">
+        <v>2154</v>
+      </c>
+      <c r="J36" s="166">
+        <v>8386</v>
+      </c>
+      <c r="K36" s="166">
+        <v>2020</v>
+      </c>
+      <c r="L36" s="166">
+        <v>2400</v>
+      </c>
+      <c r="M36" s="166">
+        <v>8809</v>
+      </c>
+      <c r="N36" s="166">
+        <v>4244</v>
+      </c>
+      <c r="O36" s="166">
+        <v>3417</v>
+      </c>
+      <c r="P36" s="166">
+        <v>8350</v>
+      </c>
+      <c r="Q36" s="166">
+        <v>4583</v>
+      </c>
+      <c r="R36" s="166">
+        <v>8689</v>
+      </c>
+      <c r="S36" s="191">
+        <f t="shared" si="0"/>
+        <v>75863</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="170" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="C11" s="117">
-        <v>137</v>
-      </c>
-      <c r="D11" s="117">
-        <v>14035</v>
-      </c>
-      <c r="E11" s="117">
-        <v>1596</v>
-      </c>
-      <c r="F11" s="117">
-        <v>796</v>
-      </c>
-      <c r="G11" s="117">
-        <v>1311</v>
-      </c>
-      <c r="H11" s="117">
-        <v>525</v>
-      </c>
-      <c r="I11" s="117">
-        <v>1748</v>
-      </c>
-      <c r="J11" s="117">
-        <v>4568</v>
-      </c>
-      <c r="K11" s="117">
-        <v>1713</v>
-      </c>
-      <c r="L11" s="117">
-        <v>1554</v>
-      </c>
-      <c r="M11" s="117">
-        <v>6649</v>
-      </c>
-      <c r="N11" s="117">
-        <v>4731</v>
-      </c>
-      <c r="O11" s="117">
-        <v>2669</v>
-      </c>
-      <c r="P11" s="123">
-        <v>8957</v>
-      </c>
-      <c r="Q11" s="117">
-        <v>3767</v>
-      </c>
-      <c r="R11" s="123">
-        <v>6562</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="72" t="s">
+      <c r="B37" s="170" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" s="166">
+        <v>157</v>
+      </c>
+      <c r="D37" s="166">
+        <v>17406</v>
+      </c>
+      <c r="E37" s="166">
+        <v>1683</v>
+      </c>
+      <c r="F37" s="166">
+        <v>961</v>
+      </c>
+      <c r="G37" s="166">
+        <v>1574</v>
+      </c>
+      <c r="H37" s="166">
+        <v>615</v>
+      </c>
+      <c r="I37" s="166">
+        <v>2108</v>
+      </c>
+      <c r="J37" s="166">
+        <v>8012</v>
+      </c>
+      <c r="K37" s="166">
+        <v>2008</v>
+      </c>
+      <c r="L37" s="166">
+        <v>2413</v>
+      </c>
+      <c r="M37" s="166">
+        <v>8577</v>
+      </c>
+      <c r="N37" s="166">
+        <v>5618</v>
+      </c>
+      <c r="O37" s="166">
+        <v>3275</v>
+      </c>
+      <c r="P37" s="167">
+        <v>10516</v>
+      </c>
+      <c r="Q37" s="166">
+        <v>4752</v>
+      </c>
+      <c r="R37" s="167">
+        <v>7601</v>
+      </c>
+      <c r="S37" s="191">
+        <f t="shared" si="0"/>
+        <v>77276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="170" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="C12" s="117">
-        <v>123</v>
-      </c>
-      <c r="D12" s="117">
-        <v>13920</v>
-      </c>
-      <c r="E12" s="117">
-        <v>1658</v>
-      </c>
-      <c r="F12" s="117">
-        <v>800</v>
-      </c>
-      <c r="G12" s="117">
-        <v>1394</v>
-      </c>
-      <c r="H12" s="117">
-        <v>564</v>
-      </c>
-      <c r="I12" s="117">
-        <v>1602</v>
-      </c>
-      <c r="J12" s="117">
-        <v>4808</v>
-      </c>
-      <c r="K12" s="117">
-        <v>1482</v>
-      </c>
-      <c r="L12" s="117">
-        <v>1671</v>
-      </c>
-      <c r="M12" s="117">
-        <v>7340</v>
-      </c>
-      <c r="N12" s="117">
-        <v>4819</v>
-      </c>
-      <c r="O12" s="117">
-        <v>2472</v>
-      </c>
-      <c r="P12" s="123">
-        <v>7675</v>
-      </c>
-      <c r="Q12" s="117">
-        <v>3958</v>
-      </c>
-      <c r="R12" s="123">
-        <v>5356</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="72" t="s">
+      <c r="B38" s="170" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" s="166">
+        <v>138</v>
+      </c>
+      <c r="D38" s="166">
+        <v>17423</v>
+      </c>
+      <c r="E38" s="166">
+        <v>1737</v>
+      </c>
+      <c r="F38" s="166">
+        <v>950</v>
+      </c>
+      <c r="G38" s="166">
+        <v>1717</v>
+      </c>
+      <c r="H38" s="166">
+        <v>672</v>
+      </c>
+      <c r="I38" s="166">
+        <v>1974</v>
+      </c>
+      <c r="J38" s="166">
+        <v>8626</v>
+      </c>
+      <c r="K38" s="166">
+        <v>1783</v>
+      </c>
+      <c r="L38" s="166">
+        <v>2540</v>
+      </c>
+      <c r="M38" s="166">
+        <v>9385</v>
+      </c>
+      <c r="N38" s="166">
+        <v>5758</v>
+      </c>
+      <c r="O38" s="166">
+        <v>3030</v>
+      </c>
+      <c r="P38" s="167">
+        <v>9053</v>
+      </c>
+      <c r="Q38" s="166">
+        <v>5043</v>
+      </c>
+      <c r="R38" s="167">
+        <v>6165</v>
+      </c>
+      <c r="S38" s="191">
+        <f t="shared" si="0"/>
+        <v>75994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="170" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="C13" s="117">
-        <v>126</v>
-      </c>
-      <c r="D13" s="117">
-        <v>13737</v>
-      </c>
-      <c r="E13" s="117">
-        <v>1617</v>
-      </c>
-      <c r="F13" s="117">
-        <v>760</v>
-      </c>
-      <c r="G13" s="117">
-        <v>1462</v>
-      </c>
-      <c r="H13" s="117">
-        <v>683</v>
-      </c>
-      <c r="I13" s="117">
-        <v>1532</v>
-      </c>
-      <c r="J13" s="117">
-        <v>4849</v>
-      </c>
-      <c r="K13" s="117">
-        <v>1010</v>
-      </c>
-      <c r="L13" s="117">
-        <v>1670</v>
-      </c>
-      <c r="M13" s="117">
-        <v>7646</v>
-      </c>
-      <c r="N13" s="117">
-        <v>4789</v>
-      </c>
-      <c r="O13" s="117">
-        <v>2331</v>
-      </c>
-      <c r="P13" s="123">
-        <v>5360</v>
-      </c>
-      <c r="Q13" s="117">
-        <v>4229</v>
-      </c>
-      <c r="R13" s="123">
-        <v>6111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="122" t="s">
+      <c r="B39" s="170" t="s">
+        <v>234</v>
+      </c>
+      <c r="C39" s="166">
+        <v>146</v>
+      </c>
+      <c r="D39" s="166">
+        <v>17171</v>
+      </c>
+      <c r="E39" s="166">
+        <v>1695</v>
+      </c>
+      <c r="F39" s="166">
+        <v>913</v>
+      </c>
+      <c r="G39" s="166">
+        <v>1766</v>
+      </c>
+      <c r="H39" s="166">
+        <v>805</v>
+      </c>
+      <c r="I39" s="166">
+        <v>1879</v>
+      </c>
+      <c r="J39" s="166">
+        <v>8331</v>
+      </c>
+      <c r="K39" s="166">
+        <v>1277</v>
+      </c>
+      <c r="L39" s="166">
+        <v>2552</v>
+      </c>
+      <c r="M39" s="166">
+        <v>9898</v>
+      </c>
+      <c r="N39" s="166">
+        <v>5696</v>
+      </c>
+      <c r="O39" s="166">
+        <v>2861</v>
+      </c>
+      <c r="P39" s="167">
+        <v>6244</v>
+      </c>
+      <c r="Q39" s="166">
+        <v>5328</v>
+      </c>
+      <c r="R39" s="167">
+        <v>7630</v>
+      </c>
+      <c r="S39" s="191">
+        <f t="shared" si="0"/>
+        <v>74192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="171" t="s">
         <v>218</v>
       </c>
-      <c r="B14" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="C14" s="118">
-        <v>131</v>
-      </c>
-      <c r="D14" s="118">
-        <v>13898</v>
-      </c>
-      <c r="E14" s="118">
-        <v>1532</v>
-      </c>
-      <c r="F14" s="118">
-        <v>767</v>
-      </c>
-      <c r="G14" s="118">
-        <v>1598</v>
-      </c>
-      <c r="H14" s="118">
-        <v>379</v>
-      </c>
-      <c r="I14" s="118">
-        <v>1308</v>
-      </c>
-      <c r="J14" s="118">
-        <v>3617</v>
-      </c>
-      <c r="K14" s="118">
-        <v>516</v>
-      </c>
-      <c r="L14" s="118">
-        <v>1485</v>
-      </c>
-      <c r="M14" s="118">
-        <v>6464</v>
-      </c>
-      <c r="N14" s="118">
-        <v>4533</v>
-      </c>
-      <c r="O14" s="118">
-        <v>2279</v>
-      </c>
-      <c r="P14" s="124">
-        <v>3544</v>
-      </c>
-      <c r="Q14" s="118">
-        <v>3914</v>
-      </c>
-      <c r="R14" s="124">
-        <v>14586</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="184">
-        <f>SUM(C2:C14)/$T$15</f>
-        <v>1.9165111246407323E-3</v>
-      </c>
-      <c r="D15" s="184">
-        <f>SUM(D2:D14)/$T$15</f>
-        <v>0.20405780287564182</v>
-      </c>
-      <c r="E15" s="184">
-        <f>SUM(E2:E14)/$T$15</f>
-        <v>2.3710730587042483E-2</v>
-      </c>
-      <c r="F15" s="184">
-        <f>SUM(F2:F14)/$T$15</f>
-        <v>1.1862866315535492E-2</v>
-      </c>
-      <c r="G15" s="184">
-        <f>SUM(G2:G14)/$T$15</f>
-        <v>1.7434875501787118E-2</v>
-      </c>
-      <c r="H15" s="184">
-        <f>SUM(H2:H14)/$T$15</f>
-        <v>7.5922844487561428E-3</v>
-      </c>
-      <c r="I15" s="184">
-        <f>SUM(I2:I14)/$T$15</f>
-        <v>3.166556443315402E-2</v>
-      </c>
-      <c r="J15" s="184">
-        <f>SUM(J2:J14)/$T$15</f>
-        <v>0.11211902621732212</v>
-      </c>
-      <c r="K15" s="184">
-        <f>SUM(K2:K14)/$T$15</f>
-        <v>1.3558097290755865E-2</v>
-      </c>
-      <c r="L15" s="184">
-        <f>SUM(L2:L14)/$T$15</f>
-        <v>2.4815881163808569E-2</v>
-      </c>
-      <c r="M15" s="184">
-        <f>SUM(M2:M14)/$T$15</f>
-        <v>0.10752840074460145</v>
-      </c>
-      <c r="N15" s="184">
-        <f>SUM(N2:N14)/$T$15</f>
-        <v>5.6771485114846899E-2</v>
-      </c>
-      <c r="O15" s="184">
-        <f>SUM(O2:O14)/$T$15</f>
-        <v>4.6347564855711593E-2</v>
-      </c>
-      <c r="P15" s="184">
-        <f>SUM(P2:P14)/$T$15</f>
-        <v>0.14255692338081064</v>
-      </c>
-      <c r="Q15" s="184">
-        <f>SUM(Q2:Q14)/$T$15</f>
-        <v>4.7904026923668352E-2</v>
-      </c>
-      <c r="R15" s="184">
-        <f>SUM(R2:R14)/$T$15</f>
-        <v>0.15015795902191673</v>
-      </c>
-      <c r="T15" s="183">
-        <f>SUM(C2:R14)</f>
-        <v>799891</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="72" t="s">
-        <v>224</v>
-      </c>
-      <c r="C16" s="120">
-        <v>16</v>
-      </c>
-      <c r="D16" s="120">
-        <v>2151</v>
-      </c>
-      <c r="E16" s="120">
-        <v>45</v>
-      </c>
-      <c r="F16" s="120">
-        <v>91</v>
-      </c>
-      <c r="G16" s="120">
-        <v>91</v>
-      </c>
-      <c r="H16" s="120">
-        <v>69</v>
-      </c>
-      <c r="I16" s="120">
-        <v>386</v>
-      </c>
-      <c r="J16" s="120">
-        <v>6303</v>
-      </c>
-      <c r="K16" s="117">
-        <v>0</v>
-      </c>
-      <c r="L16" s="120">
-        <v>756</v>
-      </c>
-      <c r="M16" s="120">
-        <v>1157</v>
-      </c>
-      <c r="N16" s="120">
-        <v>256</v>
-      </c>
-      <c r="O16" s="120">
-        <v>630</v>
-      </c>
-      <c r="P16" s="120">
-        <v>1196</v>
-      </c>
-      <c r="Q16" s="120">
-        <v>396</v>
-      </c>
-      <c r="R16" s="120">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="72" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" s="120">
-        <v>28</v>
-      </c>
-      <c r="D17" s="120">
-        <v>2268</v>
-      </c>
-      <c r="E17" s="120">
-        <v>37</v>
-      </c>
-      <c r="F17" s="120">
-        <v>100</v>
-      </c>
-      <c r="G17" s="120">
-        <v>130</v>
-      </c>
-      <c r="H17" s="120">
-        <v>54</v>
-      </c>
-      <c r="I17" s="120">
-        <v>424</v>
-      </c>
-      <c r="J17" s="120">
-        <v>6758</v>
-      </c>
-      <c r="K17" s="117">
-        <v>0</v>
-      </c>
-      <c r="L17" s="120">
-        <v>698</v>
-      </c>
-      <c r="M17" s="120">
-        <v>1091</v>
-      </c>
-      <c r="N17" s="120">
-        <v>239</v>
-      </c>
-      <c r="O17" s="120">
-        <v>643</v>
-      </c>
-      <c r="P17" s="120">
-        <v>1884</v>
-      </c>
-      <c r="Q17" s="120">
-        <v>477</v>
-      </c>
-      <c r="R17" s="120">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="72" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="120">
-        <v>6</v>
-      </c>
-      <c r="D18" s="120">
-        <v>2372</v>
-      </c>
-      <c r="E18" s="120">
-        <v>28</v>
-      </c>
-      <c r="F18" s="120">
-        <v>107</v>
-      </c>
-      <c r="G18" s="120">
-        <v>106</v>
-      </c>
-      <c r="H18" s="120">
-        <v>71</v>
-      </c>
-      <c r="I18" s="120">
-        <v>404</v>
-      </c>
-      <c r="J18" s="120">
-        <v>6312</v>
-      </c>
-      <c r="K18" s="117">
-        <v>0</v>
-      </c>
-      <c r="L18" s="120">
-        <v>600</v>
-      </c>
-      <c r="M18" s="120">
-        <v>1156</v>
-      </c>
-      <c r="N18" s="120">
-        <v>305</v>
-      </c>
-      <c r="O18" s="120">
-        <v>610</v>
-      </c>
-      <c r="P18" s="120">
-        <v>2027</v>
-      </c>
-      <c r="Q18" s="120">
-        <v>460</v>
-      </c>
-      <c r="R18" s="120">
+      <c r="B40" s="170" t="s">
+        <v>234</v>
+      </c>
+      <c r="C40" s="168">
+        <v>162</v>
+      </c>
+      <c r="D40" s="168">
+        <v>17351</v>
+      </c>
+      <c r="E40" s="168">
+        <v>1612</v>
+      </c>
+      <c r="F40" s="168">
+        <v>894</v>
+      </c>
+      <c r="G40" s="168">
+        <v>1929</v>
+      </c>
+      <c r="H40" s="168">
+        <v>490</v>
+      </c>
+      <c r="I40" s="168">
         <v>1600</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="72" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="120">
-        <v>20</v>
-      </c>
-      <c r="D19" s="120">
-        <v>2496</v>
-      </c>
-      <c r="E19" s="120">
-        <v>47</v>
-      </c>
-      <c r="F19" s="120">
-        <v>120</v>
-      </c>
-      <c r="G19" s="120">
-        <v>133</v>
-      </c>
-      <c r="H19" s="120">
-        <v>60</v>
-      </c>
-      <c r="I19" s="120">
-        <v>373</v>
-      </c>
-      <c r="J19" s="120">
-        <v>6211</v>
-      </c>
-      <c r="K19" s="117">
-        <v>0</v>
-      </c>
-      <c r="L19" s="120">
-        <v>628</v>
-      </c>
-      <c r="M19" s="120">
-        <v>1300</v>
-      </c>
-      <c r="N19" s="120">
-        <v>330</v>
-      </c>
-      <c r="O19" s="120">
-        <v>601</v>
-      </c>
-      <c r="P19" s="120">
-        <v>1762</v>
-      </c>
-      <c r="Q19" s="120">
-        <v>545</v>
-      </c>
-      <c r="R19" s="120">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="72" t="s">
-        <v>224</v>
-      </c>
-      <c r="C20" s="120">
-        <v>14</v>
-      </c>
-      <c r="D20" s="120">
-        <v>2845</v>
-      </c>
-      <c r="E20" s="120">
-        <v>58</v>
-      </c>
-      <c r="F20" s="120">
-        <v>110</v>
-      </c>
-      <c r="G20" s="120">
-        <v>160</v>
-      </c>
-      <c r="H20" s="120">
-        <v>87</v>
-      </c>
-      <c r="I20" s="120">
-        <v>352</v>
-      </c>
-      <c r="J20" s="120">
-        <v>5952</v>
-      </c>
-      <c r="K20" s="117">
-        <v>0</v>
-      </c>
-      <c r="L20" s="120">
-        <v>792</v>
-      </c>
-      <c r="M20" s="120">
-        <v>1465</v>
-      </c>
-      <c r="N20" s="120">
-        <v>411</v>
-      </c>
-      <c r="O20" s="120">
-        <v>633</v>
-      </c>
-      <c r="P20" s="120">
-        <v>1892</v>
-      </c>
-      <c r="Q20" s="120">
-        <v>617</v>
-      </c>
-      <c r="R20" s="120">
-        <v>2726</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="72" t="s">
-        <v>224</v>
-      </c>
-      <c r="C21" s="120">
-        <v>19</v>
-      </c>
-      <c r="D21" s="120">
-        <v>2969</v>
-      </c>
-      <c r="E21" s="120">
-        <v>73</v>
-      </c>
-      <c r="F21" s="120">
-        <v>118</v>
-      </c>
-      <c r="G21" s="120">
-        <v>192</v>
-      </c>
-      <c r="H21" s="120">
-        <v>81</v>
-      </c>
-      <c r="I21" s="120">
-        <v>370</v>
-      </c>
-      <c r="J21" s="120">
-        <v>5063</v>
-      </c>
-      <c r="K21" s="117">
-        <v>0</v>
-      </c>
-      <c r="L21" s="120">
-        <v>783</v>
-      </c>
-      <c r="M21" s="120">
-        <v>1607</v>
-      </c>
-      <c r="N21" s="120">
-        <v>479</v>
-      </c>
-      <c r="O21" s="120">
-        <v>629</v>
-      </c>
-      <c r="P21" s="120">
-        <v>1668</v>
-      </c>
-      <c r="Q21" s="120">
-        <v>648</v>
-      </c>
-      <c r="R21" s="120">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="72" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="72" t="s">
-        <v>224</v>
-      </c>
-      <c r="C22" s="120">
-        <v>13</v>
-      </c>
-      <c r="D22" s="120">
-        <v>3108</v>
-      </c>
-      <c r="E22" s="120">
-        <v>50</v>
-      </c>
-      <c r="F22" s="120">
-        <v>145</v>
-      </c>
-      <c r="G22" s="120">
-        <v>235</v>
-      </c>
-      <c r="H22" s="120">
-        <v>57</v>
-      </c>
-      <c r="I22" s="120">
-        <v>350</v>
-      </c>
-      <c r="J22" s="120">
-        <v>3518</v>
-      </c>
-      <c r="K22" s="120">
-        <v>442</v>
-      </c>
-      <c r="L22" s="120">
-        <v>783</v>
-      </c>
-      <c r="M22" s="120">
-        <v>2018</v>
-      </c>
-      <c r="N22" s="120">
-        <v>571</v>
-      </c>
-      <c r="O22" s="120">
-        <v>598</v>
-      </c>
-      <c r="P22" s="120">
-        <v>1503</v>
-      </c>
-      <c r="Q22" s="120">
-        <v>764</v>
-      </c>
-      <c r="R22" s="120">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="72" t="s">
-        <v>224</v>
-      </c>
-      <c r="C23" s="120">
-        <v>26</v>
-      </c>
-      <c r="D23" s="120">
-        <v>3269</v>
-      </c>
-      <c r="E23" s="120">
-        <v>64</v>
-      </c>
-      <c r="F23" s="120">
-        <v>127</v>
-      </c>
-      <c r="G23" s="120">
-        <v>268</v>
-      </c>
-      <c r="H23" s="120">
-        <v>55</v>
-      </c>
-      <c r="I23" s="120">
-        <v>369</v>
-      </c>
-      <c r="J23" s="120">
-        <v>3581</v>
-      </c>
-      <c r="K23" s="120">
-        <v>345</v>
-      </c>
-      <c r="L23" s="120">
-        <v>789</v>
-      </c>
-      <c r="M23" s="120">
-        <v>1950</v>
-      </c>
-      <c r="N23" s="120">
-        <v>676</v>
-      </c>
-      <c r="O23" s="120">
-        <v>610</v>
-      </c>
-      <c r="P23" s="120">
-        <v>1216</v>
-      </c>
-      <c r="Q23" s="120">
-        <v>786</v>
-      </c>
-      <c r="R23" s="120">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="72" t="s">
-        <v>224</v>
-      </c>
-      <c r="C24" s="120">
-        <v>27</v>
-      </c>
-      <c r="D24" s="120">
-        <v>3343</v>
-      </c>
-      <c r="E24" s="120">
-        <v>81</v>
-      </c>
-      <c r="F24" s="120">
-        <v>157</v>
-      </c>
-      <c r="G24" s="120">
-        <v>259</v>
-      </c>
-      <c r="H24" s="120">
-        <v>62</v>
-      </c>
-      <c r="I24" s="120">
-        <v>375</v>
-      </c>
-      <c r="J24" s="120">
-        <v>3713</v>
-      </c>
-      <c r="K24" s="120">
-        <v>297</v>
-      </c>
-      <c r="L24" s="120">
-        <v>840</v>
-      </c>
-      <c r="M24" s="120">
-        <v>1939</v>
-      </c>
-      <c r="N24" s="120">
-        <v>687</v>
-      </c>
-      <c r="O24" s="120">
-        <v>620</v>
-      </c>
-      <c r="P24" s="120">
-        <v>1278</v>
-      </c>
-      <c r="Q24" s="120">
-        <v>866</v>
-      </c>
-      <c r="R24" s="120">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="72" t="s">
-        <v>224</v>
-      </c>
-      <c r="C25" s="120">
-        <v>18</v>
-      </c>
-      <c r="D25" s="120">
-        <v>3378</v>
-      </c>
-      <c r="E25" s="120">
-        <v>81</v>
-      </c>
-      <c r="F25" s="120">
-        <v>162</v>
-      </c>
-      <c r="G25" s="120">
-        <v>264</v>
-      </c>
-      <c r="H25" s="120">
-        <v>87</v>
-      </c>
-      <c r="I25" s="120">
-        <v>359</v>
-      </c>
-      <c r="J25" s="120">
-        <v>3437</v>
-      </c>
-      <c r="K25" s="120">
-        <v>294</v>
-      </c>
-      <c r="L25" s="120">
-        <v>856</v>
-      </c>
-      <c r="M25" s="120">
-        <v>1931</v>
-      </c>
-      <c r="N25" s="120">
-        <v>886</v>
-      </c>
-      <c r="O25" s="120">
-        <v>609</v>
-      </c>
-      <c r="P25" s="123">
-        <v>1562</v>
-      </c>
-      <c r="Q25" s="120">
-        <v>980</v>
-      </c>
-      <c r="R25" s="123">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="72" t="s">
-        <v>224</v>
-      </c>
-      <c r="C26" s="120">
-        <v>17</v>
-      </c>
-      <c r="D26" s="120">
-        <v>3500</v>
-      </c>
-      <c r="E26" s="120">
-        <v>83</v>
-      </c>
-      <c r="F26" s="120">
-        <v>149</v>
-      </c>
-      <c r="G26" s="120">
-        <v>322</v>
-      </c>
-      <c r="H26" s="120">
-        <v>107</v>
-      </c>
-      <c r="I26" s="120">
-        <v>374</v>
-      </c>
-      <c r="J26" s="120">
-        <v>3814</v>
-      </c>
-      <c r="K26" s="120">
-        <v>307</v>
-      </c>
-      <c r="L26" s="120">
-        <v>870</v>
-      </c>
-      <c r="M26" s="120">
-        <v>2045</v>
-      </c>
-      <c r="N26" s="120">
-        <v>938</v>
-      </c>
-      <c r="O26" s="120">
-        <v>559</v>
-      </c>
-      <c r="P26" s="123">
-        <v>1375</v>
-      </c>
-      <c r="Q26" s="120">
-        <v>1083</v>
-      </c>
-      <c r="R26" s="123">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="72" t="s">
-        <v>224</v>
-      </c>
-      <c r="C27" s="117">
-        <v>20</v>
-      </c>
-      <c r="D27" s="117">
-        <v>3431</v>
-      </c>
-      <c r="E27" s="117">
-        <v>73</v>
-      </c>
-      <c r="F27" s="117">
-        <v>151</v>
-      </c>
-      <c r="G27" s="117">
-        <v>307</v>
-      </c>
-      <c r="H27" s="117">
-        <v>120</v>
-      </c>
-      <c r="I27" s="117">
-        <v>344</v>
-      </c>
-      <c r="J27" s="117">
-        <v>3476</v>
-      </c>
-      <c r="K27" s="117">
-        <v>261</v>
-      </c>
-      <c r="L27" s="117">
-        <v>876</v>
-      </c>
-      <c r="M27" s="117">
-        <v>2258</v>
-      </c>
-      <c r="N27" s="117">
-        <v>912</v>
-      </c>
-      <c r="O27" s="117">
-        <v>535</v>
-      </c>
-      <c r="P27" s="123">
-        <v>889</v>
-      </c>
-      <c r="Q27" s="117">
-        <v>1097</v>
-      </c>
-      <c r="R27" s="123">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="122" t="s">
-        <v>218</v>
-      </c>
-      <c r="B28" s="72" t="s">
-        <v>224</v>
-      </c>
-      <c r="C28" s="118">
-        <v>31</v>
-      </c>
-      <c r="D28" s="118">
-        <v>3447</v>
-      </c>
-      <c r="E28" s="118">
-        <v>85</v>
-      </c>
-      <c r="F28" s="118">
-        <v>123</v>
-      </c>
-      <c r="G28" s="118">
-        <v>328</v>
-      </c>
-      <c r="H28" s="118">
-        <v>106</v>
-      </c>
-      <c r="I28" s="118">
-        <v>291</v>
-      </c>
-      <c r="J28" s="118">
-        <v>2453</v>
-      </c>
-      <c r="K28" s="118">
-        <v>111</v>
-      </c>
-      <c r="L28" s="118">
-        <v>727</v>
-      </c>
-      <c r="M28" s="118">
-        <v>2129</v>
-      </c>
-      <c r="N28" s="118">
-        <v>792</v>
-      </c>
-      <c r="O28" s="118">
-        <v>577</v>
-      </c>
-      <c r="P28" s="124">
-        <v>657</v>
-      </c>
-      <c r="Q28" s="118">
-        <v>1032</v>
-      </c>
-      <c r="R28" s="124">
-        <v>5104</v>
+      <c r="J40" s="168">
+        <v>6068</v>
+      </c>
+      <c r="K40" s="168">
+        <v>623</v>
+      </c>
+      <c r="L40" s="168">
+        <v>2206</v>
+      </c>
+      <c r="M40" s="168">
+        <v>8595</v>
+      </c>
+      <c r="N40" s="168">
+        <v>5320</v>
+      </c>
+      <c r="O40" s="168">
+        <v>2862</v>
+      </c>
+      <c r="P40" s="169">
+        <v>4199</v>
+      </c>
+      <c r="Q40" s="168">
+        <v>4949</v>
+      </c>
+      <c r="R40" s="169">
+        <v>19692</v>
+      </c>
+      <c r="S40" s="191">
+        <f t="shared" si="0"/>
+        <v>78552</v>
       </c>
     </row>
   </sheetData>
@@ -53376,36 +54261,36 @@
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="90"/>
-      <c r="B5" s="170" t="s">
+      <c r="B5" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="171"/>
-      <c r="O5" s="172" t="s">
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="172"/>
-      <c r="R5" s="172"/>
-      <c r="S5" s="172"/>
-      <c r="T5" s="172"/>
-      <c r="U5" s="172"/>
-      <c r="V5" s="172"/>
-      <c r="W5" s="172"/>
-      <c r="X5" s="172"/>
-      <c r="Y5" s="172"/>
-      <c r="Z5" s="172"/>
-      <c r="AA5" s="172"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="181"/>
+      <c r="R5" s="181"/>
+      <c r="S5" s="181"/>
+      <c r="T5" s="181"/>
+      <c r="U5" s="181"/>
+      <c r="V5" s="181"/>
+      <c r="W5" s="181"/>
+      <c r="X5" s="181"/>
+      <c r="Y5" s="181"/>
+      <c r="Z5" s="181"/>
+      <c r="AA5" s="181"/>
     </row>
     <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
@@ -53492,34 +54377,34 @@
     </row>
     <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="61"/>
-      <c r="B7" s="173" t="s">
+      <c r="B7" s="182" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="173"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="173"/>
-      <c r="S7" s="173"/>
-      <c r="T7" s="173"/>
-      <c r="U7" s="173"/>
-      <c r="V7" s="173"/>
-      <c r="W7" s="173"/>
-      <c r="X7" s="173"/>
-      <c r="Y7" s="173"/>
-      <c r="Z7" s="173"/>
-      <c r="AA7" s="173"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="182"/>
+      <c r="K7" s="182"/>
+      <c r="L7" s="182"/>
+      <c r="M7" s="182"/>
+      <c r="N7" s="182"/>
+      <c r="O7" s="182"/>
+      <c r="P7" s="182"/>
+      <c r="Q7" s="182"/>
+      <c r="R7" s="182"/>
+      <c r="S7" s="182"/>
+      <c r="T7" s="182"/>
+      <c r="U7" s="182"/>
+      <c r="V7" s="182"/>
+      <c r="W7" s="182"/>
+      <c r="X7" s="182"/>
+      <c r="Y7" s="182"/>
+      <c r="Z7" s="182"/>
+      <c r="AA7" s="182"/>
     </row>
     <row r="8" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
@@ -54851,34 +55736,34 @@
     </row>
     <row r="24" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="60"/>
-      <c r="B24" s="174" t="s">
+      <c r="B24" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="174"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="174"/>
-      <c r="K24" s="174"/>
-      <c r="L24" s="174"/>
-      <c r="M24" s="174"/>
-      <c r="N24" s="174"/>
-      <c r="O24" s="174"/>
-      <c r="P24" s="174"/>
-      <c r="Q24" s="174"/>
-      <c r="R24" s="174"/>
-      <c r="S24" s="174"/>
-      <c r="T24" s="174"/>
-      <c r="U24" s="174"/>
-      <c r="V24" s="174"/>
-      <c r="W24" s="174"/>
-      <c r="X24" s="174"/>
-      <c r="Y24" s="174"/>
-      <c r="Z24" s="174"/>
-      <c r="AA24" s="174"/>
+      <c r="C24" s="183"/>
+      <c r="D24" s="183"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="183"/>
+      <c r="L24" s="183"/>
+      <c r="M24" s="183"/>
+      <c r="N24" s="183"/>
+      <c r="O24" s="183"/>
+      <c r="P24" s="183"/>
+      <c r="Q24" s="183"/>
+      <c r="R24" s="183"/>
+      <c r="S24" s="183"/>
+      <c r="T24" s="183"/>
+      <c r="U24" s="183"/>
+      <c r="V24" s="183"/>
+      <c r="W24" s="183"/>
+      <c r="X24" s="183"/>
+      <c r="Y24" s="183"/>
+      <c r="Z24" s="183"/>
+      <c r="AA24" s="183"/>
     </row>
     <row r="25" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
@@ -56210,34 +57095,34 @@
     </row>
     <row r="41" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="60"/>
-      <c r="B41" s="174" t="s">
+      <c r="B41" s="183" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="174"/>
-      <c r="D41" s="174"/>
-      <c r="E41" s="174"/>
-      <c r="F41" s="174"/>
-      <c r="G41" s="174"/>
-      <c r="H41" s="174"/>
-      <c r="I41" s="174"/>
-      <c r="J41" s="174"/>
-      <c r="K41" s="174"/>
-      <c r="L41" s="174"/>
-      <c r="M41" s="174"/>
-      <c r="N41" s="174"/>
-      <c r="O41" s="174"/>
-      <c r="P41" s="174"/>
-      <c r="Q41" s="174"/>
-      <c r="R41" s="174"/>
-      <c r="S41" s="174"/>
-      <c r="T41" s="174"/>
-      <c r="U41" s="174"/>
-      <c r="V41" s="174"/>
-      <c r="W41" s="174"/>
-      <c r="X41" s="174"/>
-      <c r="Y41" s="174"/>
-      <c r="Z41" s="174"/>
-      <c r="AA41" s="174"/>
+      <c r="C41" s="183"/>
+      <c r="D41" s="183"/>
+      <c r="E41" s="183"/>
+      <c r="F41" s="183"/>
+      <c r="G41" s="183"/>
+      <c r="H41" s="183"/>
+      <c r="I41" s="183"/>
+      <c r="J41" s="183"/>
+      <c r="K41" s="183"/>
+      <c r="L41" s="183"/>
+      <c r="M41" s="183"/>
+      <c r="N41" s="183"/>
+      <c r="O41" s="183"/>
+      <c r="P41" s="183"/>
+      <c r="Q41" s="183"/>
+      <c r="R41" s="183"/>
+      <c r="S41" s="183"/>
+      <c r="T41" s="183"/>
+      <c r="U41" s="183"/>
+      <c r="V41" s="183"/>
+      <c r="W41" s="183"/>
+      <c r="X41" s="183"/>
+      <c r="Y41" s="183"/>
+      <c r="Z41" s="183"/>
+      <c r="AA41" s="183"/>
     </row>
     <row r="42" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="34" t="s">
